--- a/Code/Results/Cases/Case_4_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7.133965400895875</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.683632284834914</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1974737525826384</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.06363928127179364</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0008048133578538431</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,33 +451,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.149306860773045</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.004229005209744</v>
+      </c>
+      <c r="N2">
+        <v>4.292538680389242</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6.200975501116886</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.437565229391453</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.16868322094696</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.05458498017744517</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008211834890923829</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -486,33 +498,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1347641973467404</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.8770081536652654</v>
+      </c>
+      <c r="N3">
+        <v>4.030681960316087</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5.65024009355335</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.291943034954329</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1516231335115918</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.049216780378039</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008313606654135065</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -527,33 +545,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.126228930611795</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.8019557444316021</v>
+      </c>
+      <c r="N4">
+        <v>3.875683015930719</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5.430526776573856</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.233744490875779</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1448003900382986</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.04706798975767512</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008355474840220113</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -568,33 +592,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1228370496540876</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.7720263807495229</v>
+      </c>
+      <c r="N5">
+        <v>3.813763810031588</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5.394305877916111</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.224143642621812</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1436746064900234</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.04671328314753609</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008362453001684137</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -609,33 +639,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.122278703408071</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.7670931508808252</v>
+      </c>
+      <c r="N6">
+        <v>3.803551721373083</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5.647258900511417</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.291153798199787</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1515306272397652</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.04918765519267509</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008314169606045854</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -650,33 +686,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1261828526372355</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.8015495939002548</v>
+      </c>
+      <c r="N7">
+        <v>3.874843170872253</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>6.80712738431879</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.597504297982312</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1874017977775964</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.06047161268235257</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008104367834234159</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -691,33 +733,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1442024993978066</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.9596531640624235</v>
+      </c>
+      <c r="N8">
+        <v>4.200914339567049</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>9.303587481926115</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2.254276430288371</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2640623536010054</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.08463158514802416</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007698626467009607</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -732,33 +780,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1833591158597798</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.300267435197</v>
+      </c>
+      <c r="N9">
+        <v>4.897620708619883</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>11.35523650660582</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.793508789265331</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3267506258557802</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1045495906482117</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007396389135324938</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -773,33 +827,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2156735527396449</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.580259791346649</v>
+      </c>
+      <c r="N10">
+        <v>5.464419474878184</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>12.36139070879767</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3.05820399446003</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3574353599787656</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.1143776776488465</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007255635641312499</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -814,33 +874,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2315179743803668</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.717543126161573</v>
+      </c>
+      <c r="N11">
+        <v>5.740354536473149</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>12.7558321901048</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3.162050600923408</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.369457463008132</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.1182446732289186</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007201593788731718</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -855,33 +921,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2377251669099252</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.77135294525506</v>
+      </c>
+      <c r="N12">
+        <v>5.848152480162412</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>12.67022755712173</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>3.139508744829982</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3668486319877786</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.1174046998184224</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007213270913813361</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -896,33 +968,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.236378299287523</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.759675243317659</v>
+      </c>
+      <c r="N13">
+        <v>5.824775593390427</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>12.39355218780008</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3.066669466949577</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3584157377788415</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.1146926634742336</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007251206313900804</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -937,33 +1015,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2320241996483787</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.721930821581608</v>
+      </c>
+      <c r="N14">
+        <v>5.749152045187202</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>12.22593322228522</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3.022552587725102</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3533059332617512</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.1130516207754049</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007274336754286415</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -978,33 +1062,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.229385662190154</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.699062660899997</v>
+      </c>
+      <c r="N15">
+        <v>5.703285706297208</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>11.29118093694717</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.776665401246476</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.324796074234996</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.1039254845364539</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007405500570202278</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1019,33 +1109,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2146644856658355</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.571518872792055</v>
+      </c>
+      <c r="N16">
+        <v>5.446806290582288</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>10.73824137862096</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2.631300785060773</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.307917874782504</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.09854502645204022</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007484959717627508</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1060,33 +1156,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2059533590518328</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.496062127990982</v>
+      </c>
+      <c r="N17">
+        <v>5.294539981944752</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>10.42684308866956</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2.549455378239202</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2984072729300777</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.09551993515479751</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007530375424112917</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1101,33 +1203,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2010475250457091</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.453565051784466</v>
+      </c>
+      <c r="N18">
+        <v>5.208611657099368</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>10.32247259658016</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2.522025769766344</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2952186866530724</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.09450675132331554</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007545710127718938</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1142,33 +1250,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1994033445583909</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.439321174174552</v>
+      </c>
+      <c r="N19">
+        <v>5.179783094801905</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>10.79639707540457</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2.646587299339728</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3096935964021981</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.09911036265958373</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.000747653258916989</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1183,33 +1297,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2068695793589512</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.503998588982682</v>
+      </c>
+      <c r="N20">
+        <v>5.310573628053646</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>12.47442570913529</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>3.08795822154093</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3608808949106219</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.115484973787499</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007240086484388796</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1224,33 +1344,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2332970750902206</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.732963991042155</v>
+      </c>
+      <c r="N21">
+        <v>5.771268060868408</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>13.65153410448602</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3.398070412421077</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.396745887891143</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.1270594402891803</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007081037351589428</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1265,33 +1391,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2518072300879339</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.893520717480285</v>
+      </c>
+      <c r="N22">
+        <v>6.092137945539037</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>13.01469091611034</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>3.230229947074804</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.377345351586186</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.1207872045508509</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007166452410765078</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1306,33 +1438,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2417969602049794</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.80666318218482</v>
+      </c>
+      <c r="N23">
+        <v>5.918779727257629</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>10.77008486731336</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2.639670946450565</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3088901982581973</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.09885456418556871</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007480343306687232</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1347,33 +1485,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2064550405268761</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.500407789731454</v>
+      </c>
+      <c r="N24">
+        <v>5.30331984699626</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>8.597098878592988</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2.068589877990235</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2424220846512384</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.07779571535899166</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007808464775795538</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1388,9 +1532,15 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1722475117472726</v>
       </c>
       <c r="M25">
+        <v>1.203852851295579</v>
+      </c>
+      <c r="N25">
+        <v>4.701207925277203</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.133965400895875</v>
+        <v>3.037243497922077</v>
       </c>
       <c r="C2">
-        <v>1.683632284834914</v>
+        <v>0.2008682066040848</v>
       </c>
       <c r="D2">
-        <v>0.1974737525826384</v>
+        <v>0.2477970690842994</v>
       </c>
       <c r="E2">
-        <v>0.06363928127179364</v>
+        <v>0.04787695784005486</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008048133578538431</v>
+        <v>0.0009005910408248496</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.009881622700451231</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.789083879104595</v>
       </c>
       <c r="L2">
-        <v>0.149306860773045</v>
+        <v>0.3952839311679952</v>
       </c>
       <c r="M2">
-        <v>1.004229005209744</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.292538680389242</v>
+        <v>5.760242970891767</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.200975501116886</v>
+        <v>2.769060294821713</v>
       </c>
       <c r="C3">
-        <v>1.437565229391453</v>
+        <v>0.1754534895070776</v>
       </c>
       <c r="D3">
-        <v>0.16868322094696</v>
+        <v>0.2318981204037556</v>
       </c>
       <c r="E3">
-        <v>0.05458498017744517</v>
+        <v>0.04639722602699159</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008211834890923829</v>
+        <v>0.000910770141494259</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.009757610754446588</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2.524068406611065</v>
       </c>
       <c r="L3">
-        <v>0.1347641973467404</v>
+        <v>0.3673218860276819</v>
       </c>
       <c r="M3">
-        <v>0.8770081536652654</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4.030681960316087</v>
+        <v>5.548970397769097</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.65024009355335</v>
+        <v>2.609687020789693</v>
       </c>
       <c r="C4">
-        <v>1.291943034954329</v>
+        <v>0.1602346088378823</v>
       </c>
       <c r="D4">
-        <v>0.1516231335115918</v>
+        <v>0.2225318865017698</v>
       </c>
       <c r="E4">
-        <v>0.049216780378039</v>
+        <v>0.04555010428353157</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008313606654135065</v>
+        <v>0.0009171829091728754</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.009683405222481234</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.366334449513772</v>
       </c>
       <c r="L4">
-        <v>0.126228930611795</v>
+        <v>0.3508181642258137</v>
       </c>
       <c r="M4">
-        <v>0.8019557444316021</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3.875683015930719</v>
+        <v>5.422535730724974</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.430526776573856</v>
+        <v>2.5459482920607</v>
       </c>
       <c r="C5">
-        <v>1.233744490875779</v>
+        <v>0.1541178734813116</v>
       </c>
       <c r="D5">
-        <v>0.1448003900382986</v>
+        <v>0.218806854285063</v>
       </c>
       <c r="E5">
-        <v>0.04706798975767512</v>
+        <v>0.04521948504981665</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008355474840220113</v>
+        <v>0.0009198391787330633</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.009653574613204263</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.303188186364082</v>
       </c>
       <c r="L5">
-        <v>0.1228370496540876</v>
+        <v>0.3442461247463058</v>
       </c>
       <c r="M5">
-        <v>0.7720263807495229</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>3.813763810031588</v>
+        <v>5.371760261248625</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.394305877916111</v>
+        <v>2.535434023815696</v>
       </c>
       <c r="C6">
-        <v>1.224143642621812</v>
+        <v>0.153107003915963</v>
       </c>
       <c r="D6">
-        <v>0.1436746064900234</v>
+        <v>0.218193645370576</v>
       </c>
       <c r="E6">
-        <v>0.04671328314753609</v>
+        <v>0.04516544342557971</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008362453001684137</v>
+        <v>0.0009202829060887109</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.00964864380125352</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.292767769058429</v>
       </c>
       <c r="L6">
-        <v>0.122278703408071</v>
+        <v>0.343163722264805</v>
       </c>
       <c r="M6">
-        <v>0.7670931508808252</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.803551721373083</v>
+        <v>5.363372006767008</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.647258900511417</v>
+        <v>2.60882268577808</v>
       </c>
       <c r="C7">
-        <v>1.291153798199787</v>
+        <v>0.160151786924061</v>
       </c>
       <c r="D7">
-        <v>0.1515306272397652</v>
+        <v>0.2224812875283391</v>
       </c>
       <c r="E7">
-        <v>0.04918765519267509</v>
+        <v>0.04554558744584014</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008314169606045854</v>
+        <v>0.0009172185557783989</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.009683001359585219</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.365478409012582</v>
       </c>
       <c r="L7">
-        <v>0.1261828526372355</v>
+        <v>0.3507289279153696</v>
       </c>
       <c r="M7">
-        <v>0.8015495939002548</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3.874843170872253</v>
+        <v>5.421848027251485</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.80712738431879</v>
+        <v>2.94359755960437</v>
       </c>
       <c r="C8">
-        <v>1.597504297982312</v>
+        <v>0.1920175847734811</v>
       </c>
       <c r="D8">
-        <v>0.1874017977775964</v>
+        <v>0.2422280882984467</v>
       </c>
       <c r="E8">
-        <v>0.06047161268235257</v>
+        <v>0.04735345264118074</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008104367834234159</v>
+        <v>0.0009040683258319078</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.009838411121521062</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.696594421086814</v>
       </c>
       <c r="L8">
-        <v>0.1442024993978066</v>
+        <v>0.3854958252309899</v>
       </c>
       <c r="M8">
-        <v>0.9596531640624235</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>4.200914339567049</v>
+        <v>5.686664115634102</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.303587481926115</v>
+        <v>3.648312071244504</v>
       </c>
       <c r="C9">
-        <v>2.254276430288371</v>
+        <v>0.258171780692777</v>
       </c>
       <c r="D9">
-        <v>0.2640623536010054</v>
+        <v>0.2844814712913717</v>
       </c>
       <c r="E9">
-        <v>0.08463158514802416</v>
+        <v>0.05142944283282169</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007698626467009607</v>
+        <v>0.0008794678745500945</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.01016258289359406</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3.391645999505613</v>
       </c>
       <c r="L9">
-        <v>0.1833591158597798</v>
+        <v>0.4596504455757326</v>
       </c>
       <c r="M9">
-        <v>1.300267435197</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>4.897620708619883</v>
+        <v>6.236021984607305</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.35523650660582</v>
+        <v>4.205293024750802</v>
       </c>
       <c r="C10">
-        <v>2.793508789265331</v>
+        <v>0.3099665135432872</v>
       </c>
       <c r="D10">
-        <v>0.3267506258557802</v>
+        <v>0.3182907501997789</v>
       </c>
       <c r="E10">
-        <v>0.1045495906482117</v>
+        <v>0.05481579092762345</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007396389135324938</v>
+        <v>0.0008619544950733406</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.01041909248939099</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.939918653506481</v>
       </c>
       <c r="L10">
-        <v>0.2156735527396449</v>
+        <v>0.5188796986812179</v>
       </c>
       <c r="M10">
-        <v>1.580259791346649</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>5.464419474878184</v>
+        <v>6.664196313918069</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.36139070879767</v>
+        <v>4.469761658626396</v>
       </c>
       <c r="C11">
-        <v>3.05820399446003</v>
+        <v>0.334473570283933</v>
       </c>
       <c r="D11">
-        <v>0.3574353599787656</v>
+        <v>0.3344318372633808</v>
       </c>
       <c r="E11">
-        <v>0.1143776776488465</v>
+        <v>0.05645911005510129</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007255635641312499</v>
+        <v>0.0008540668269081189</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01054152111324225</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4.200054893377967</v>
       </c>
       <c r="L11">
-        <v>0.2315179743803668</v>
+        <v>0.5471439119862964</v>
       </c>
       <c r="M11">
-        <v>1.717543126161573</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>5.740354536473149</v>
+        <v>6.865935766881194</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.7558321901048</v>
+        <v>4.571754245701868</v>
       </c>
       <c r="C12">
-        <v>3.162050600923408</v>
+        <v>0.3439143180479505</v>
       </c>
       <c r="D12">
-        <v>0.369457463008132</v>
+        <v>0.3406690083887298</v>
       </c>
       <c r="E12">
-        <v>0.1182446732289186</v>
+        <v>0.05709790098161704</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007201593788731718</v>
+        <v>0.0008510873114034869</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.01058888298208149</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4.300351752614915</v>
       </c>
       <c r="L12">
-        <v>0.2377251669099252</v>
+        <v>0.5580648014197322</v>
       </c>
       <c r="M12">
-        <v>1.77135294525506</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>5.848152480162412</v>
+        <v>6.943486771936932</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.67022755712173</v>
+        <v>4.549701958809692</v>
       </c>
       <c r="C13">
-        <v>3.139508744829982</v>
+        <v>0.3418735180331396</v>
       </c>
       <c r="D13">
-        <v>0.3668486319877786</v>
+        <v>0.3393198977666003</v>
       </c>
       <c r="E13">
-        <v>0.1174046998184224</v>
+        <v>0.05695956216829856</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007213270913813361</v>
+        <v>0.000851728745513455</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.010578635139181</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>4.278667152868479</v>
       </c>
       <c r="L13">
-        <v>0.236378299287523</v>
+        <v>0.5557026152350772</v>
       </c>
       <c r="M13">
-        <v>1.759675243317659</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>5.824775593390427</v>
+        <v>6.926730618865463</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.39355218780008</v>
+        <v>4.478114141124138</v>
       </c>
       <c r="C14">
-        <v>3.066669466949577</v>
+        <v>0.3352468970465452</v>
       </c>
       <c r="D14">
-        <v>0.3584157377788415</v>
+        <v>0.3349423737542168</v>
       </c>
       <c r="E14">
-        <v>0.1146926634742336</v>
+        <v>0.0565113223905449</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007251206313900804</v>
+        <v>0.0008538215775927145</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.01054539643706942</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>4.20826898301425</v>
       </c>
       <c r="L14">
-        <v>0.2320241996483787</v>
+        <v>0.5480378397026868</v>
       </c>
       <c r="M14">
-        <v>1.721930821581608</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>5.749152045187202</v>
+        <v>6.87229178409234</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.22593322228522</v>
+        <v>4.434512670463164</v>
       </c>
       <c r="C15">
-        <v>3.022552587725102</v>
+        <v>0.3312095860923421</v>
       </c>
       <c r="D15">
-        <v>0.3533059332617512</v>
+        <v>0.3322777742193779</v>
       </c>
       <c r="E15">
-        <v>0.1130516207754049</v>
+        <v>0.05623896646053339</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007274336754286415</v>
+        <v>0.0008551043290385696</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.01052517280351495</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4.165388970163292</v>
       </c>
       <c r="L15">
-        <v>0.229385662190154</v>
+        <v>0.5433722112408219</v>
       </c>
       <c r="M15">
-        <v>1.699062660899997</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>5.703285706297208</v>
+        <v>6.839102047149936</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.29118093694717</v>
+        <v>4.188253101418638</v>
       </c>
       <c r="C16">
-        <v>2.776665401246476</v>
+        <v>0.3083859580834485</v>
       </c>
       <c r="D16">
-        <v>0.324796074234996</v>
+        <v>0.3172524793193787</v>
       </c>
       <c r="E16">
-        <v>0.1039254845364539</v>
+        <v>0.05471060681524875</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007405500570202278</v>
+        <v>0.000862471235945129</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.01041122135326589</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.923154245125659</v>
       </c>
       <c r="L16">
-        <v>0.2146644856658355</v>
+        <v>0.5170614390931263</v>
       </c>
       <c r="M16">
-        <v>1.571518872792055</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>5.446806290582288</v>
+        <v>6.651165063484854</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.73824137862096</v>
+        <v>4.04018873386326</v>
       </c>
       <c r="C17">
-        <v>2.631300785060773</v>
+        <v>0.294642884021556</v>
       </c>
       <c r="D17">
-        <v>0.307917874782504</v>
+        <v>0.3082402133253908</v>
       </c>
       <c r="E17">
-        <v>0.09854502645204022</v>
+        <v>0.05380049637777518</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007484959717627508</v>
+        <v>0.0008670081986321687</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.01034290223570267</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.777462716810533</v>
       </c>
       <c r="L17">
-        <v>0.2059533590518328</v>
+        <v>0.5012775357745483</v>
       </c>
       <c r="M17">
-        <v>1.496062127990982</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>5.294539981944752</v>
+        <v>6.53775888534409</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.42684308866956</v>
+        <v>3.956053573219265</v>
       </c>
       <c r="C18">
-        <v>2.549455378239202</v>
+        <v>0.2868255530497379</v>
       </c>
       <c r="D18">
-        <v>0.2984072729300777</v>
+        <v>0.3031271905842345</v>
       </c>
       <c r="E18">
-        <v>0.09551993515479751</v>
+        <v>0.0532865905729718</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007530375424112917</v>
+        <v>0.000869625470059165</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.01030413524077733</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3.694657547390761</v>
       </c>
       <c r="L18">
-        <v>0.2010475250457091</v>
+        <v>0.4923214585258506</v>
       </c>
       <c r="M18">
-        <v>1.453565051784466</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>5.208611657099368</v>
+        <v>6.473175351320521</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.32247259658016</v>
+        <v>3.92773631863588</v>
       </c>
       <c r="C19">
-        <v>2.522025769766344</v>
+        <v>0.2841930465565952</v>
       </c>
       <c r="D19">
-        <v>0.2952186866530724</v>
+        <v>0.3014076969761987</v>
       </c>
       <c r="E19">
-        <v>0.09450675132331554</v>
+        <v>0.05311418540202339</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007545710127718938</v>
+        <v>0.0008705130748180703</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.0102910952618176</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3.666784681491322</v>
       </c>
       <c r="L19">
-        <v>0.1994033445583909</v>
+        <v>0.4893093190206059</v>
       </c>
       <c r="M19">
-        <v>1.439321174174552</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>5.179783094801905</v>
+        <v>6.451414800078481</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.79639707540457</v>
+        <v>4.055842401141319</v>
       </c>
       <c r="C20">
-        <v>2.646587299339728</v>
+        <v>0.2960966539459662</v>
       </c>
       <c r="D20">
-        <v>0.3096935964021981</v>
+        <v>0.3091921730429021</v>
       </c>
       <c r="E20">
-        <v>0.09911036265958373</v>
+        <v>0.05389637752397292</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000747653258916989</v>
+        <v>0.0008665244585326608</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.01035011906058347</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3.792867406174423</v>
       </c>
       <c r="L20">
-        <v>0.2068695793589512</v>
+        <v>0.5029449005642448</v>
       </c>
       <c r="M20">
-        <v>1.503998588982682</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>5.310573628053646</v>
+        <v>6.549763382136717</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.47442570913529</v>
+        <v>4.499089012402351</v>
       </c>
       <c r="C21">
-        <v>3.08795822154093</v>
+        <v>0.3371887279726593</v>
       </c>
       <c r="D21">
-        <v>0.3608808949106219</v>
+        <v>0.3362246351110798</v>
       </c>
       <c r="E21">
-        <v>0.115484973787499</v>
+        <v>0.05664251859308678</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007240086484388796</v>
+        <v>0.0008532066968398339</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.01055513074595993</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>4.228895937117215</v>
       </c>
       <c r="L21">
-        <v>0.2332970750902206</v>
+        <v>0.5502830149987261</v>
       </c>
       <c r="M21">
-        <v>1.732963991042155</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>5.771268060868408</v>
+        <v>6.888249048946648</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.65153410448602</v>
+        <v>4.799667276417381</v>
       </c>
       <c r="C22">
-        <v>3.398070412421077</v>
+        <v>0.3649941839290705</v>
       </c>
       <c r="D22">
-        <v>0.396745887891143</v>
+        <v>0.3546287035003957</v>
       </c>
       <c r="E22">
-        <v>0.1270594402891803</v>
+        <v>0.05853444055725632</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007081037351589428</v>
+        <v>0.0008445434556806668</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.01069505478696353</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>4.52443447595499</v>
       </c>
       <c r="L22">
-        <v>0.2518072300879339</v>
+        <v>0.5825069974676893</v>
       </c>
       <c r="M22">
-        <v>1.893520717480285</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>6.092137945539037</v>
+        <v>7.116299598226192</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.01469091611034</v>
+        <v>4.638154674853638</v>
       </c>
       <c r="C23">
-        <v>3.230229947074804</v>
+        <v>0.3500579302766766</v>
       </c>
       <c r="D23">
-        <v>0.377345351586186</v>
+        <v>0.3447329923574927</v>
       </c>
       <c r="E23">
-        <v>0.1207872045508509</v>
+        <v>0.05751516562692416</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007166452410765078</v>
+        <v>0.0008491649484198952</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.01061976561164268</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>4.36564176864249</v>
       </c>
       <c r="L23">
-        <v>0.2417969602049794</v>
+        <v>0.5651804769755842</v>
       </c>
       <c r="M23">
-        <v>1.80666318218482</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>5.918779727257629</v>
+        <v>6.993902391988058</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.77008486731336</v>
+        <v>4.048762315917713</v>
       </c>
       <c r="C24">
-        <v>2.639670946450565</v>
+        <v>0.2954391455189409</v>
       </c>
       <c r="D24">
-        <v>0.3088901982581973</v>
+        <v>0.3087615806125399</v>
       </c>
       <c r="E24">
-        <v>0.09885456418556871</v>
+        <v>0.05385300072674859</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007480343306687232</v>
+        <v>0.000866743129288573</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.01034685475662211</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>3.785899990209089</v>
       </c>
       <c r="L24">
-        <v>0.2064550405268761</v>
+        <v>0.5021907185269754</v>
       </c>
       <c r="M24">
-        <v>1.500407789731454</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>5.30331984699626</v>
+        <v>6.544334244459009</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.597098878592988</v>
+        <v>3.451562552941596</v>
       </c>
       <c r="C25">
-        <v>2.068589877990235</v>
+        <v>0.2397913588031884</v>
       </c>
       <c r="D25">
-        <v>0.2424220846512384</v>
+        <v>0.2726139658555269</v>
       </c>
       <c r="E25">
-        <v>0.07779571535899166</v>
+        <v>0.05026341002988843</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007808464775795538</v>
+        <v>0.000886011586713508</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.01007219143889859</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3.197786149982903</v>
       </c>
       <c r="L25">
-        <v>0.1722475117472726</v>
+        <v>0.4388438756700026</v>
       </c>
       <c r="M25">
-        <v>1.203852851295579</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>4.701207925277203</v>
+        <v>6.083588443870752</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.037243497922077</v>
+        <v>4.302731113197012</v>
       </c>
       <c r="C2">
-        <v>0.2008682066040848</v>
+        <v>0.1348401523616332</v>
       </c>
       <c r="D2">
-        <v>0.2477970690842994</v>
+        <v>0.4636836715194335</v>
       </c>
       <c r="E2">
-        <v>0.04787695784005486</v>
+        <v>0.1184377548800093</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0009005910408248496</v>
+        <v>0.002784549938200505</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009881622700451231</v>
+        <v>0.02575336588086152</v>
       </c>
       <c r="K2">
-        <v>2.789083879104595</v>
+        <v>3.595999680862008</v>
       </c>
       <c r="L2">
-        <v>0.3952839311679952</v>
+        <v>0.6933962085670231</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>5.760242970891767</v>
+        <v>7.390207188599476</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.769060294821713</v>
+        <v>4.261376840821526</v>
       </c>
       <c r="C3">
-        <v>0.1754534895070776</v>
+        <v>0.1290371097969825</v>
       </c>
       <c r="D3">
-        <v>0.2318981204037556</v>
+        <v>0.4624233527037518</v>
       </c>
       <c r="E3">
-        <v>0.04639722602699159</v>
+        <v>0.1186677422826392</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000910770141494259</v>
+        <v>0.002790667944192828</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.009757610754446588</v>
+        <v>0.02572025073381745</v>
       </c>
       <c r="K3">
-        <v>2.524068406611065</v>
+        <v>3.551250404210549</v>
       </c>
       <c r="L3">
-        <v>0.3673218860276819</v>
+        <v>0.6905708056876421</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.548970397769097</v>
+        <v>7.315733859723991</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.609687020789693</v>
+        <v>4.238149426166899</v>
       </c>
       <c r="C4">
-        <v>0.1602346088378823</v>
+        <v>0.1255620464430649</v>
       </c>
       <c r="D4">
-        <v>0.2225318865017698</v>
+        <v>0.4618468495392847</v>
       </c>
       <c r="E4">
-        <v>0.04555010428353157</v>
+        <v>0.1188476709181714</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0009171829091728754</v>
+        <v>0.002794620825851842</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.009683405222481234</v>
+        <v>0.02569982516832248</v>
       </c>
       <c r="K4">
-        <v>2.366334449513772</v>
+        <v>3.525674296202141</v>
       </c>
       <c r="L4">
-        <v>0.3508181642258137</v>
+        <v>0.6891468745419189</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.422535730724974</v>
+        <v>7.270470312392803</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.5459482920607</v>
+        <v>4.229227594964982</v>
       </c>
       <c r="C5">
-        <v>0.1541178734813116</v>
+        <v>0.1241679008563636</v>
       </c>
       <c r="D5">
-        <v>0.218806854285063</v>
+        <v>0.4616615387711107</v>
       </c>
       <c r="E5">
-        <v>0.04521948504981665</v>
+        <v>0.1189307406176461</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0009198391787330633</v>
+        <v>0.002796281217964777</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.009653574613204263</v>
+        <v>0.02569147685076345</v>
       </c>
       <c r="K5">
-        <v>2.303188186364082</v>
+        <v>3.51572874336793</v>
       </c>
       <c r="L5">
-        <v>0.3442461247463058</v>
+        <v>0.6886447434716985</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.371760261248625</v>
+        <v>7.252140536431597</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.535434023815696</v>
+        <v>4.227778939859434</v>
       </c>
       <c r="C6">
-        <v>0.153107003915963</v>
+        <v>0.1239377262776742</v>
       </c>
       <c r="D6">
-        <v>0.218193645370576</v>
+        <v>0.4616337648811282</v>
       </c>
       <c r="E6">
-        <v>0.04516544342557971</v>
+        <v>0.118945123351784</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0009202829060887109</v>
+        <v>0.002796559923334385</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.00964864380125352</v>
+        <v>0.02569008908443049</v>
       </c>
       <c r="K6">
-        <v>2.292767769058429</v>
+        <v>3.514106071443564</v>
       </c>
       <c r="L6">
-        <v>0.343163722264805</v>
+        <v>0.6885660829091194</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.363372006767008</v>
+        <v>7.249103836207325</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.60882268577808</v>
+        <v>4.238026903427169</v>
       </c>
       <c r="C7">
-        <v>0.160151786924061</v>
+        <v>0.1255431557633671</v>
       </c>
       <c r="D7">
-        <v>0.2224812875283391</v>
+        <v>0.4618441494702665</v>
       </c>
       <c r="E7">
-        <v>0.04554558744584014</v>
+        <v>0.118848751742421</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0009172185557783989</v>
+        <v>0.002794643017527341</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.009683001359585219</v>
+        <v>0.02569971268182858</v>
       </c>
       <c r="K7">
-        <v>2.365478409012582</v>
+        <v>3.525538237139244</v>
       </c>
       <c r="L7">
-        <v>0.3507289279153696</v>
+        <v>0.6891397863217605</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>5.421848027251485</v>
+        <v>7.270222644458499</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.94359755960437</v>
+        <v>4.28802251304927</v>
       </c>
       <c r="C8">
-        <v>0.1920175847734811</v>
+        <v>0.1328208912899811</v>
       </c>
       <c r="D8">
-        <v>0.2422280882984467</v>
+        <v>0.4632081520917666</v>
       </c>
       <c r="E8">
-        <v>0.04735345264118074</v>
+        <v>0.1185090261120436</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0009040683258319078</v>
+        <v>0.002786618768801347</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.009838411121521062</v>
+        <v>0.02574196616005331</v>
       </c>
       <c r="K8">
-        <v>2.696594421086814</v>
+        <v>3.580175194879416</v>
       </c>
       <c r="L8">
-        <v>0.3854958252309899</v>
+        <v>0.6923574591022685</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>5.686664115634102</v>
+        <v>7.364431963321096</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.648312071244504</v>
+        <v>4.403279503734893</v>
       </c>
       <c r="C9">
-        <v>0.258171780692777</v>
+        <v>0.1477993547934489</v>
       </c>
       <c r="D9">
-        <v>0.2844814712913717</v>
+        <v>0.4674496605094731</v>
       </c>
       <c r="E9">
-        <v>0.05142944283282169</v>
+        <v>0.1181495686865404</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008794678745500945</v>
+        <v>0.002772433632988904</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01016258289359406</v>
+        <v>0.025824156969664</v>
       </c>
       <c r="K9">
-        <v>3.391645999505613</v>
+        <v>3.702445996263862</v>
       </c>
       <c r="L9">
-        <v>0.4596504455757326</v>
+        <v>0.7011371109497446</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>6.236021984607305</v>
+        <v>7.552909579680914</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.205293024750802</v>
+        <v>4.498530927011984</v>
       </c>
       <c r="C10">
-        <v>0.3099665135432872</v>
+        <v>0.1592479425972328</v>
       </c>
       <c r="D10">
-        <v>0.3182907501997789</v>
+        <v>0.4715233940346053</v>
       </c>
       <c r="E10">
-        <v>0.05481579092762345</v>
+        <v>0.1180719960336916</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008619544950733406</v>
+        <v>0.002762945809134039</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01041909248939099</v>
+        <v>0.02588423441376086</v>
       </c>
       <c r="K10">
-        <v>3.939918653506481</v>
+        <v>3.80158810044577</v>
       </c>
       <c r="L10">
-        <v>0.5188796986812179</v>
+        <v>0.7090994239574968</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>6.664196313918069</v>
+        <v>7.693753272535332</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.469761658626396</v>
+        <v>4.54417715940474</v>
       </c>
       <c r="C11">
-        <v>0.334473570283933</v>
+        <v>0.1645555236559346</v>
       </c>
       <c r="D11">
-        <v>0.3344318372633808</v>
+        <v>0.4735851852650654</v>
       </c>
       <c r="E11">
-        <v>0.05645911005510129</v>
+        <v>0.1180771209339468</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008540668269081189</v>
+        <v>0.002758829974264903</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01054152111324225</v>
+        <v>0.02591152027793164</v>
       </c>
       <c r="K11">
-        <v>4.200054893377967</v>
+        <v>3.848732362946976</v>
       </c>
       <c r="L11">
-        <v>0.5471439119862964</v>
+        <v>0.7130515255789049</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>6.865935766881194</v>
+        <v>7.758362243348472</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.571754245701868</v>
+        <v>4.561796459475886</v>
       </c>
       <c r="C12">
-        <v>0.3439143180479505</v>
+        <v>0.166579898838819</v>
       </c>
       <c r="D12">
-        <v>0.3406690083887298</v>
+        <v>0.4743959700213338</v>
       </c>
       <c r="E12">
-        <v>0.05709790098161704</v>
+        <v>0.1180848647622348</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008510873114034869</v>
+        <v>0.002757300023992881</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01058888298208149</v>
+        <v>0.02592184815526011</v>
       </c>
       <c r="K12">
-        <v>4.300351752614915</v>
+        <v>3.866880014880167</v>
       </c>
       <c r="L12">
-        <v>0.5580648014197322</v>
+        <v>0.7145956390882731</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>6.943486771936932</v>
+        <v>7.782906815078036</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.549701958809692</v>
+        <v>4.557986953398313</v>
       </c>
       <c r="C13">
-        <v>0.3418735180331396</v>
+        <v>0.1661432650057293</v>
       </c>
       <c r="D13">
-        <v>0.3393198977666003</v>
+        <v>0.4742200169780233</v>
       </c>
       <c r="E13">
-        <v>0.05695956216829856</v>
+        <v>0.1180829390205176</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000851728745513455</v>
+        <v>0.002757628255482948</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.010578635139181</v>
+        <v>0.02591962404464532</v>
       </c>
       <c r="K13">
-        <v>4.278667152868479</v>
+        <v>3.862958446990547</v>
       </c>
       <c r="L13">
-        <v>0.5557026152350772</v>
+        <v>0.7142609709418508</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>6.926730618865463</v>
+        <v>7.777617190483681</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.478114141124138</v>
+        <v>4.545620008601929</v>
       </c>
       <c r="C14">
-        <v>0.3352468970465452</v>
+        <v>0.164721778314231</v>
       </c>
       <c r="D14">
-        <v>0.3349423737542168</v>
+        <v>0.4736512870119611</v>
       </c>
       <c r="E14">
-        <v>0.0565113223905449</v>
+        <v>0.1180776417652929</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008538215775927145</v>
+        <v>0.002758703531634547</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01054539643706942</v>
+        <v>0.02591237004318181</v>
       </c>
       <c r="K14">
-        <v>4.20826898301425</v>
+        <v>3.850219458987056</v>
       </c>
       <c r="L14">
-        <v>0.5480378397026868</v>
+        <v>0.7131776074870402</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>6.87229178409234</v>
+        <v>7.760379959154648</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.434512670463164</v>
+        <v>4.538088434248152</v>
       </c>
       <c r="C15">
-        <v>0.3312095860923421</v>
+        <v>0.1638529720054294</v>
       </c>
       <c r="D15">
-        <v>0.3322777742193779</v>
+        <v>0.4733068350660687</v>
       </c>
       <c r="E15">
-        <v>0.05623896646053339</v>
+        <v>0.1180751525470072</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008551043290385696</v>
+        <v>0.002759365892478844</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01052517280351495</v>
+        <v>0.02590792619514026</v>
       </c>
       <c r="K15">
-        <v>4.165388970163292</v>
+        <v>3.842454934069451</v>
       </c>
       <c r="L15">
-        <v>0.5433722112408219</v>
+        <v>0.7125202095722614</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>6.839102047149936</v>
+        <v>7.749831921265411</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.188253101418638</v>
+        <v>4.495594527921469</v>
       </c>
       <c r="C16">
-        <v>0.3083859580834485</v>
+        <v>0.1589030995037035</v>
       </c>
       <c r="D16">
-        <v>0.3172524793193787</v>
+        <v>0.471392851656887</v>
       </c>
       <c r="E16">
-        <v>0.05471060681524875</v>
+        <v>0.1180724736126635</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.000862471235945129</v>
+        <v>0.002763218803583027</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01041122135326589</v>
+        <v>0.02588245047524396</v>
       </c>
       <c r="K16">
-        <v>3.923154245125659</v>
+        <v>3.798548345910888</v>
       </c>
       <c r="L16">
-        <v>0.5170614390931263</v>
+        <v>0.7088477924420573</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>6.651165063484854</v>
+        <v>7.689541855627112</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.04018873386326</v>
+        <v>4.470119773587271</v>
       </c>
       <c r="C17">
-        <v>0.294642884021556</v>
+        <v>0.1558921489825877</v>
       </c>
       <c r="D17">
-        <v>0.3082402133253908</v>
+        <v>0.4702721391974478</v>
       </c>
       <c r="E17">
-        <v>0.05380049637777518</v>
+        <v>0.1180811749614339</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008670081986321687</v>
+        <v>0.00276563360407164</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01034290223570267</v>
+        <v>0.02586681188735795</v>
       </c>
       <c r="K17">
-        <v>3.777462716810533</v>
+        <v>3.772137451058029</v>
       </c>
       <c r="L17">
-        <v>0.5012775357745483</v>
+        <v>0.7066794639809615</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>6.53775888534409</v>
+        <v>7.652694564617605</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.956053573219265</v>
+        <v>4.455685285686229</v>
       </c>
       <c r="C18">
-        <v>0.2868255530497379</v>
+        <v>0.1541696892992945</v>
       </c>
       <c r="D18">
-        <v>0.3031271905842345</v>
+        <v>0.4696471703413465</v>
       </c>
       <c r="E18">
-        <v>0.0532865905729718</v>
+        <v>0.1180899840849996</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000869625470059165</v>
+        <v>0.002767041389508302</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01030413524077733</v>
+        <v>0.02585781277802823</v>
       </c>
       <c r="K18">
-        <v>3.694657547390761</v>
+        <v>3.757138920834734</v>
       </c>
       <c r="L18">
-        <v>0.4923214585258506</v>
+        <v>0.7054633551519629</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>6.473175351320521</v>
+        <v>7.631551592561095</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.92773631863588</v>
+        <v>4.450835412480046</v>
       </c>
       <c r="C19">
-        <v>0.2841930465565952</v>
+        <v>0.1535880957226539</v>
       </c>
       <c r="D19">
-        <v>0.3014076969761987</v>
+        <v>0.4694389381863715</v>
       </c>
       <c r="E19">
-        <v>0.05311418540202339</v>
+        <v>0.1180936203581471</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008705130748180703</v>
+        <v>0.002767521285008821</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0102910952618176</v>
+        <v>0.02585476506389917</v>
       </c>
       <c r="K19">
-        <v>3.666784681491322</v>
+        <v>3.752093670621719</v>
       </c>
       <c r="L19">
-        <v>0.4893093190206059</v>
+        <v>0.70505693307733</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>6.451414800078481</v>
+        <v>7.624401604597381</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.055842401141319</v>
+        <v>4.472809043686425</v>
       </c>
       <c r="C20">
-        <v>0.2960966539459662</v>
+        <v>0.1562116997574492</v>
       </c>
       <c r="D20">
-        <v>0.3091921730429021</v>
+        <v>0.4703894085750591</v>
       </c>
       <c r="E20">
-        <v>0.05389637752397292</v>
+        <v>0.1180798550144093</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008665244585326608</v>
+        <v>0.002765374594126792</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01035011906058347</v>
+        <v>0.02586847706539608</v>
       </c>
       <c r="K20">
-        <v>3.792867406174423</v>
+        <v>3.774929023055961</v>
       </c>
       <c r="L20">
-        <v>0.5029449005642448</v>
+        <v>0.7069070714409804</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>6.549763382136717</v>
+        <v>7.65661177506297</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.499089012402351</v>
+        <v>4.549243405197899</v>
       </c>
       <c r="C21">
-        <v>0.3371887279726593</v>
+        <v>0.1651389080768979</v>
       </c>
       <c r="D21">
-        <v>0.3362246351110798</v>
+        <v>0.4738175215645839</v>
       </c>
       <c r="E21">
-        <v>0.05664251859308678</v>
+        <v>0.1180790402654424</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008532066968398339</v>
+        <v>0.002758386921357332</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01055513074595993</v>
+        <v>0.02591450083361657</v>
       </c>
       <c r="K21">
-        <v>4.228895937117215</v>
+        <v>3.853953188583546</v>
       </c>
       <c r="L21">
-        <v>0.5502830149987261</v>
+        <v>0.7134945267216466</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>6.888249048946648</v>
+        <v>7.765440810787481</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.799667276417381</v>
+        <v>4.601145364280171</v>
       </c>
       <c r="C22">
-        <v>0.3649941839290705</v>
+        <v>0.1710580188171491</v>
       </c>
       <c r="D22">
-        <v>0.3546287035003957</v>
+        <v>0.4762330398400536</v>
       </c>
       <c r="E22">
-        <v>0.05853444055725632</v>
+        <v>0.1181123294011108</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008445434556806668</v>
+        <v>0.002753986857315522</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01069505478696353</v>
+        <v>0.0259445534631908</v>
       </c>
       <c r="K22">
-        <v>4.52443447595499</v>
+        <v>3.907320960454854</v>
       </c>
       <c r="L22">
-        <v>0.5825069974676893</v>
+        <v>0.7180769423392235</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>7.116299598226192</v>
+        <v>7.837025296995535</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.638154674853638</v>
+        <v>4.57326574350202</v>
       </c>
       <c r="C23">
-        <v>0.3500579302766766</v>
+        <v>0.167891066650526</v>
       </c>
       <c r="D23">
-        <v>0.3447329923574927</v>
+        <v>0.4749278051682921</v>
       </c>
       <c r="E23">
-        <v>0.05751516562692416</v>
+        <v>0.1180914702887996</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008491649484198952</v>
+        <v>0.002756320047907387</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01061976561164268</v>
+        <v>0.02592851570728882</v>
       </c>
       <c r="K23">
-        <v>4.36564176864249</v>
+        <v>3.878679700667192</v>
       </c>
       <c r="L23">
-        <v>0.5651804769755842</v>
+        <v>0.7156058341279419</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>6.993902391988058</v>
+        <v>7.798776988659881</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.048762315917713</v>
+        <v>4.471592566638378</v>
       </c>
       <c r="C24">
-        <v>0.2954391455189409</v>
+        <v>0.1560672041542546</v>
       </c>
       <c r="D24">
-        <v>0.3087615806125399</v>
+        <v>0.4703363308399986</v>
       </c>
       <c r="E24">
-        <v>0.05385300072674859</v>
+        <v>0.118080439905091</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000866743129288573</v>
+        <v>0.002765491631816859</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01034685475662211</v>
+        <v>0.02586772426438344</v>
       </c>
       <c r="K24">
-        <v>3.785899990209089</v>
+        <v>3.773666375826963</v>
       </c>
       <c r="L24">
-        <v>0.5021907185269754</v>
+        <v>0.706804075138777</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>6.544334244459009</v>
+        <v>7.654840676517296</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.451562552941596</v>
+        <v>4.37024856146337</v>
       </c>
       <c r="C25">
-        <v>0.2397913588031884</v>
+        <v>0.1436702793031088</v>
       </c>
       <c r="D25">
-        <v>0.2726139658555269</v>
+        <v>0.4661342564425723</v>
       </c>
       <c r="E25">
-        <v>0.05026341002988843</v>
+        <v>0.1182140233331754</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000886011586713508</v>
+        <v>0.002776106264694408</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01007219143889859</v>
+        <v>0.02580198353903107</v>
       </c>
       <c r="K25">
-        <v>3.197786149982903</v>
+        <v>3.667740066449483</v>
       </c>
       <c r="L25">
-        <v>0.4388438756700026</v>
+        <v>0.6984969450156768</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>6.083588443870752</v>
+        <v>7.501512109781146</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.302731113197012</v>
+        <v>3.037243497922077</v>
       </c>
       <c r="C2">
-        <v>0.1348401523616332</v>
+        <v>0.2008682066038716</v>
       </c>
       <c r="D2">
-        <v>0.4636836715194335</v>
+        <v>0.2477970690841289</v>
       </c>
       <c r="E2">
-        <v>0.1184377548800093</v>
+        <v>0.04787695784008683</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002784549938200505</v>
+        <v>0.0009005910407723998</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02575336588086152</v>
+        <v>0.0098816227004761</v>
       </c>
       <c r="K2">
-        <v>3.595999680862008</v>
+        <v>2.789083879104567</v>
       </c>
       <c r="L2">
-        <v>0.6933962085670231</v>
+        <v>0.3952839311680947</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.390207188599476</v>
+        <v>5.760242970891767</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.261376840821526</v>
+        <v>2.769060294821713</v>
       </c>
       <c r="C3">
-        <v>0.1290371097969825</v>
+        <v>0.1754534895068218</v>
       </c>
       <c r="D3">
-        <v>0.4624233527037518</v>
+        <v>0.2318981204039829</v>
       </c>
       <c r="E3">
-        <v>0.1186677422826392</v>
+        <v>0.04639722602697738</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002790667944192828</v>
+        <v>0.0009107701416279127</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02572025073381745</v>
+        <v>0.009757610754450141</v>
       </c>
       <c r="K3">
-        <v>3.551250404210549</v>
+        <v>2.524068406611065</v>
       </c>
       <c r="L3">
-        <v>0.6905708056876421</v>
+        <v>0.367321886027824</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.315733859723991</v>
+        <v>5.548970397769125</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.238149426166899</v>
+        <v>2.60968702078975</v>
       </c>
       <c r="C4">
-        <v>0.1255620464430649</v>
+        <v>0.1602346088379392</v>
       </c>
       <c r="D4">
-        <v>0.4618468495392847</v>
+        <v>0.2225318865018124</v>
       </c>
       <c r="E4">
-        <v>0.1188476709181714</v>
+        <v>0.04555010428345163</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002794620825851842</v>
+        <v>0.0009171829091094704</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02569982516832248</v>
+        <v>0.009683405222442154</v>
       </c>
       <c r="K4">
-        <v>3.525674296202141</v>
+        <v>2.366334449513715</v>
       </c>
       <c r="L4">
-        <v>0.6891468745419189</v>
+        <v>0.3508181642258279</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.270470312392803</v>
+        <v>5.422535730725116</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.229227594964982</v>
+        <v>2.545948292060586</v>
       </c>
       <c r="C5">
-        <v>0.1241679008563636</v>
+        <v>0.1541178734812974</v>
       </c>
       <c r="D5">
-        <v>0.4616615387711107</v>
+        <v>0.2188068542849066</v>
       </c>
       <c r="E5">
-        <v>0.1189307406176461</v>
+        <v>0.04521948504980955</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002796281217964777</v>
+        <v>0.0009198391786690837</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02569147685076345</v>
+        <v>0.009653574613378346</v>
       </c>
       <c r="K5">
-        <v>3.51572874336793</v>
+        <v>2.30318818636411</v>
       </c>
       <c r="L5">
-        <v>0.6886447434716985</v>
+        <v>0.3442461247464195</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.252140536431597</v>
+        <v>5.371760261248539</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.227778939859434</v>
+        <v>2.535434023815469</v>
       </c>
       <c r="C6">
-        <v>0.1239377262776742</v>
+        <v>0.1531070039159772</v>
       </c>
       <c r="D6">
-        <v>0.4616337648811282</v>
+        <v>0.2181936453707749</v>
       </c>
       <c r="E6">
-        <v>0.118945123351784</v>
+        <v>0.04516544342557438</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002796559923334385</v>
+        <v>0.0009202829060875295</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02569008908443049</v>
+        <v>0.009648643801373424</v>
       </c>
       <c r="K6">
-        <v>3.514106071443564</v>
+        <v>2.292767769058401</v>
       </c>
       <c r="L6">
-        <v>0.6885660829091194</v>
+        <v>0.3431637222646629</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>7.249103836207325</v>
+        <v>5.363372006767065</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.238026903427169</v>
+        <v>2.608822685778023</v>
       </c>
       <c r="C7">
-        <v>0.1255431557633671</v>
+        <v>0.160151786924061</v>
       </c>
       <c r="D7">
-        <v>0.4618441494702665</v>
+        <v>0.2224812875287228</v>
       </c>
       <c r="E7">
-        <v>0.118848751742421</v>
+        <v>0.04554558744588988</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002794643017527341</v>
+        <v>0.0009172185558469235</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02569971268182858</v>
+        <v>0.009683001359654497</v>
       </c>
       <c r="K7">
-        <v>3.525538237139244</v>
+        <v>2.365478409012439</v>
       </c>
       <c r="L7">
-        <v>0.6891397863217605</v>
+        <v>0.3507289279154406</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>7.270222644458499</v>
+        <v>5.421848027251485</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.28802251304927</v>
+        <v>2.94359755960437</v>
       </c>
       <c r="C8">
-        <v>0.1328208912899811</v>
+        <v>0.1920175847731826</v>
       </c>
       <c r="D8">
-        <v>0.4632081520917666</v>
+        <v>0.2422280882986882</v>
       </c>
       <c r="E8">
-        <v>0.1185090261120436</v>
+        <v>0.04735345264120738</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002786618768801347</v>
+        <v>0.0009040683259098348</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02574196616005331</v>
+        <v>0.009838411121357638</v>
       </c>
       <c r="K8">
-        <v>3.580175194879416</v>
+        <v>2.696594421086871</v>
       </c>
       <c r="L8">
-        <v>0.6923574591022685</v>
+        <v>0.3854958252310752</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.364431963321096</v>
+        <v>5.686664115634073</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.403279503734893</v>
+        <v>3.648312071244277</v>
       </c>
       <c r="C9">
-        <v>0.1477993547934489</v>
+        <v>0.2581717806928623</v>
       </c>
       <c r="D9">
-        <v>0.4674496605094731</v>
+        <v>0.2844814712914143</v>
       </c>
       <c r="E9">
-        <v>0.1181495686865404</v>
+        <v>0.05142944283281459</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002772433632988904</v>
+        <v>0.0008794678745841471</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.025824156969664</v>
+        <v>0.01016258289366334</v>
       </c>
       <c r="K9">
-        <v>3.702445996263862</v>
+        <v>3.39164599950567</v>
       </c>
       <c r="L9">
-        <v>0.7011371109497446</v>
+        <v>0.4596504455758037</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>7.552909579680914</v>
+        <v>6.236021984607333</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.498530927011984</v>
+        <v>4.205293024750631</v>
       </c>
       <c r="C10">
-        <v>0.1592479425972328</v>
+        <v>0.3099665135432588</v>
       </c>
       <c r="D10">
-        <v>0.4715233940346053</v>
+        <v>0.3182907501994805</v>
       </c>
       <c r="E10">
-        <v>0.1180719960336916</v>
+        <v>0.05481579092771582</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002762945809134039</v>
+        <v>0.000861954495101461</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02588423441376086</v>
+        <v>0.01041909248928352</v>
       </c>
       <c r="K10">
-        <v>3.80158810044577</v>
+        <v>3.939918653506481</v>
       </c>
       <c r="L10">
-        <v>0.7090994239574968</v>
+        <v>0.5188796986812321</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>7.693753272535332</v>
+        <v>6.664196313918069</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.54417715940474</v>
+        <v>4.469761658626339</v>
       </c>
       <c r="C11">
-        <v>0.1645555236559346</v>
+        <v>0.3344735702847572</v>
       </c>
       <c r="D11">
-        <v>0.4735851852650654</v>
+        <v>0.3344318372633239</v>
       </c>
       <c r="E11">
-        <v>0.1180771209339468</v>
+        <v>0.05645911005507998</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002758829974264903</v>
+        <v>0.0008540668269405209</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02591152027793164</v>
+        <v>0.01054152111337814</v>
       </c>
       <c r="K11">
-        <v>3.848732362946976</v>
+        <v>4.200054893378024</v>
       </c>
       <c r="L11">
-        <v>0.7130515255789049</v>
+        <v>0.5471439119863248</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>7.758362243348472</v>
+        <v>6.86593576688108</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.561796459475886</v>
+        <v>4.571754245701925</v>
       </c>
       <c r="C12">
-        <v>0.166579898838819</v>
+        <v>0.3439143180475241</v>
       </c>
       <c r="D12">
-        <v>0.4743959700213338</v>
+        <v>0.3406690083891561</v>
       </c>
       <c r="E12">
-        <v>0.1180848647622348</v>
+        <v>0.05709790098168099</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002757300023992881</v>
+        <v>0.0008510873112096677</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02592184815526011</v>
+        <v>0.01058888298199001</v>
       </c>
       <c r="K12">
-        <v>3.866880014880167</v>
+        <v>4.300351752615029</v>
       </c>
       <c r="L12">
-        <v>0.7145956390882731</v>
+        <v>0.5580648014198744</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>7.782906815078036</v>
+        <v>6.943486771936875</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.557986953398313</v>
+        <v>4.549701958809408</v>
       </c>
       <c r="C13">
-        <v>0.1661432650057293</v>
+        <v>0.3418735180333101</v>
       </c>
       <c r="D13">
-        <v>0.4742200169780233</v>
+        <v>0.3393198977661314</v>
       </c>
       <c r="E13">
-        <v>0.1180829390205176</v>
+        <v>0.05695956216830211</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002757628255482948</v>
+        <v>0.0008517287454160883</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02591962404464532</v>
+        <v>0.01057863513917567</v>
       </c>
       <c r="K13">
-        <v>3.862958446990547</v>
+        <v>4.278667152868366</v>
       </c>
       <c r="L13">
-        <v>0.7142609709418508</v>
+        <v>0.5557026152350915</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>7.777617190483681</v>
+        <v>6.926730618865577</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.545620008601929</v>
+        <v>4.478114141124252</v>
       </c>
       <c r="C14">
-        <v>0.164721778314231</v>
+        <v>0.3352468970459483</v>
       </c>
       <c r="D14">
-        <v>0.4736512870119611</v>
+        <v>0.334942373754231</v>
       </c>
       <c r="E14">
-        <v>0.1180776417652929</v>
+        <v>0.05651132239052004</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002758703531634547</v>
+        <v>0.0008538215775935952</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02591237004318181</v>
+        <v>0.01054539643696639</v>
       </c>
       <c r="K14">
-        <v>3.850219458987056</v>
+        <v>4.208268983014307</v>
       </c>
       <c r="L14">
-        <v>0.7131776074870402</v>
+        <v>0.5480378397025873</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>7.760379959154648</v>
+        <v>6.87229178409234</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.538088434248152</v>
+        <v>4.434512670463164</v>
       </c>
       <c r="C15">
-        <v>0.1638529720054294</v>
+        <v>0.3312095860924842</v>
       </c>
       <c r="D15">
-        <v>0.4733068350660687</v>
+        <v>0.3322777742189231</v>
       </c>
       <c r="E15">
-        <v>0.1180751525470072</v>
+        <v>0.05623896646056892</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002759365892478844</v>
+        <v>0.0008551043289372622</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02590792619514026</v>
+        <v>0.01052517280353271</v>
       </c>
       <c r="K15">
-        <v>3.842454934069451</v>
+        <v>4.165388970163349</v>
       </c>
       <c r="L15">
-        <v>0.7125202095722614</v>
+        <v>0.5433722112409072</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>7.749831921265411</v>
+        <v>6.839102047149936</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.495594527921469</v>
+        <v>4.188253101418638</v>
       </c>
       <c r="C16">
-        <v>0.1589030995037035</v>
+        <v>0.3083859580833064</v>
       </c>
       <c r="D16">
-        <v>0.471392851656887</v>
+        <v>0.3172524793194214</v>
       </c>
       <c r="E16">
-        <v>0.1180724736126635</v>
+        <v>0.05471060681525231</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002763218803583027</v>
+        <v>0.0008624712359184272</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02588245047524396</v>
+        <v>0.0104112213533849</v>
       </c>
       <c r="K16">
-        <v>3.798548345910888</v>
+        <v>3.923154245125602</v>
       </c>
       <c r="L16">
-        <v>0.7088477924420573</v>
+        <v>0.5170614390932542</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>7.689541855627112</v>
+        <v>6.651165063484854</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.470119773587271</v>
+        <v>4.040188733863374</v>
       </c>
       <c r="C17">
-        <v>0.1558921489825877</v>
+        <v>0.2946428840213002</v>
       </c>
       <c r="D17">
-        <v>0.4702721391974478</v>
+        <v>0.3082402133254192</v>
       </c>
       <c r="E17">
-        <v>0.1180811749614339</v>
+        <v>0.05380049637772011</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.00276563360407164</v>
+        <v>0.0008670081986361561</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02586681188735795</v>
+        <v>0.01034290223587231</v>
       </c>
       <c r="K17">
-        <v>3.772137451058029</v>
+        <v>3.777462716810589</v>
       </c>
       <c r="L17">
-        <v>0.7066794639809615</v>
+        <v>0.5012775357741646</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>7.652694564617605</v>
+        <v>6.537758885344175</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.455685285686229</v>
+        <v>3.956053573219208</v>
       </c>
       <c r="C18">
-        <v>0.1541696892992945</v>
+        <v>0.2868255530497379</v>
       </c>
       <c r="D18">
-        <v>0.4696471703413465</v>
+        <v>0.3031271905842061</v>
       </c>
       <c r="E18">
-        <v>0.1180899840849996</v>
+        <v>0.05328659057300733</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002767041389508302</v>
+        <v>0.0008696254699962124</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02585781277802823</v>
+        <v>0.01030413524071427</v>
       </c>
       <c r="K18">
-        <v>3.757138920834734</v>
+        <v>3.694657547390761</v>
       </c>
       <c r="L18">
-        <v>0.7054633551519629</v>
+        <v>0.4923214585259501</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>7.631551592561095</v>
+        <v>6.473175351320435</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.450835412480046</v>
+        <v>3.92773631863588</v>
       </c>
       <c r="C19">
-        <v>0.1535880957226539</v>
+        <v>0.2841930465565952</v>
       </c>
       <c r="D19">
-        <v>0.4694389381863715</v>
+        <v>0.3014076969760282</v>
       </c>
       <c r="E19">
-        <v>0.1180936203581471</v>
+        <v>0.05311418540204826</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002767521285008821</v>
+        <v>0.0008705130747682196</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02585476506389917</v>
+        <v>0.01029109526173144</v>
       </c>
       <c r="K19">
-        <v>3.752093670621719</v>
+        <v>3.666784681491151</v>
       </c>
       <c r="L19">
-        <v>0.70505693307733</v>
+        <v>0.489309319020748</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>7.624401604597381</v>
+        <v>6.451414800078538</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.472809043686425</v>
+        <v>4.055842401141433</v>
       </c>
       <c r="C20">
-        <v>0.1562116997574492</v>
+        <v>0.2960966539456251</v>
       </c>
       <c r="D20">
-        <v>0.4703894085750591</v>
+        <v>0.3091921730429164</v>
       </c>
       <c r="E20">
-        <v>0.1180798550144093</v>
+        <v>0.05389637752395515</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002765374594126792</v>
+        <v>0.0008665244583853678</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02586847706539608</v>
+        <v>0.01035011906052929</v>
       </c>
       <c r="K20">
-        <v>3.774929023055961</v>
+        <v>3.792867406174423</v>
       </c>
       <c r="L20">
-        <v>0.7069070714409804</v>
+        <v>0.5029449005642874</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>7.65661177506297</v>
+        <v>6.549763382136717</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.549243405197899</v>
+        <v>4.499089012402465</v>
       </c>
       <c r="C21">
-        <v>0.1651389080768979</v>
+        <v>0.3371887279729151</v>
       </c>
       <c r="D21">
-        <v>0.4738175215645839</v>
+        <v>0.3362246351110372</v>
       </c>
       <c r="E21">
-        <v>0.1180790402654424</v>
+        <v>0.0566425185930477</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002758386921357332</v>
+        <v>0.0008532066968780287</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02591450083361657</v>
+        <v>0.01055513074594305</v>
       </c>
       <c r="K21">
-        <v>3.853953188583546</v>
+        <v>4.228895937117329</v>
       </c>
       <c r="L21">
-        <v>0.7134945267216466</v>
+        <v>0.550283014998854</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>7.765440810787481</v>
+        <v>6.888249048946705</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.601145364280171</v>
+        <v>4.799667276417154</v>
       </c>
       <c r="C22">
-        <v>0.1710580188171491</v>
+        <v>0.3649941839291273</v>
       </c>
       <c r="D22">
-        <v>0.4762330398400536</v>
+        <v>0.3546287035003957</v>
       </c>
       <c r="E22">
-        <v>0.1181123294011108</v>
+        <v>0.05853444055732027</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002753986857315522</v>
+        <v>0.0008445434556863259</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0259445534631908</v>
+        <v>0.01069505478704613</v>
       </c>
       <c r="K22">
-        <v>3.907320960454854</v>
+        <v>4.524434475955104</v>
       </c>
       <c r="L22">
-        <v>0.7180769423392235</v>
+        <v>0.5825069974676751</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>7.837025296995535</v>
+        <v>7.116299598226192</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.57326574350202</v>
+        <v>4.638154674853695</v>
       </c>
       <c r="C23">
-        <v>0.167891066650526</v>
+        <v>0.3500579302762787</v>
       </c>
       <c r="D23">
-        <v>0.4749278051682921</v>
+        <v>0.3447329923573363</v>
       </c>
       <c r="E23">
-        <v>0.1180914702887996</v>
+        <v>0.0575151656269135</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002756320047907387</v>
+        <v>0.0008491649483280987</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02592851570728882</v>
+        <v>0.01061976561153433</v>
       </c>
       <c r="K23">
-        <v>3.878679700667192</v>
+        <v>4.36564176864232</v>
       </c>
       <c r="L23">
-        <v>0.7156058341279419</v>
+        <v>0.5651804769756836</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>7.798776988659881</v>
+        <v>6.993902391988001</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.471592566638378</v>
+        <v>4.048762315917884</v>
       </c>
       <c r="C24">
-        <v>0.1560672041542546</v>
+        <v>0.2954391455187704</v>
       </c>
       <c r="D24">
-        <v>0.4703363308399986</v>
+        <v>0.308761580612412</v>
       </c>
       <c r="E24">
-        <v>0.118080439905091</v>
+        <v>0.05385300072680899</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002765491631816859</v>
+        <v>0.0008667431292975637</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02586772426438344</v>
+        <v>0.01034685475663899</v>
       </c>
       <c r="K24">
-        <v>3.773666375826963</v>
+        <v>3.785899990208918</v>
       </c>
       <c r="L24">
-        <v>0.706804075138777</v>
+        <v>0.5021907185269043</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>7.654840676517296</v>
+        <v>6.544334244459151</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.37024856146337</v>
+        <v>3.451562552941482</v>
       </c>
       <c r="C25">
-        <v>0.1436702793031088</v>
+        <v>0.2397913588038705</v>
       </c>
       <c r="D25">
-        <v>0.4661342564425723</v>
+        <v>0.2726139658554985</v>
       </c>
       <c r="E25">
-        <v>0.1182140233331754</v>
+        <v>0.05026341002988488</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002776106264694408</v>
+        <v>0.0008860115867697083</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02580198353903107</v>
+        <v>0.01007219143874938</v>
       </c>
       <c r="K25">
-        <v>3.667740066449483</v>
+        <v>3.197786149983074</v>
       </c>
       <c r="L25">
-        <v>0.6984969450156768</v>
+        <v>0.43884387566996</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>7.501512109781146</v>
+        <v>6.083588443870781</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.037243497922077</v>
+        <v>2.870021408753189</v>
       </c>
       <c r="C2">
-        <v>0.2008682066038716</v>
+        <v>0.7563181806440298</v>
       </c>
       <c r="D2">
-        <v>0.2477970690841289</v>
+        <v>0.1974577890542832</v>
       </c>
       <c r="E2">
-        <v>0.04787695784008683</v>
+        <v>0.05038785688791059</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0009005910407723998</v>
+        <v>1.417480452428379</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001200037985181535</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0007523104850957196</v>
       </c>
       <c r="J2">
-        <v>0.0098816227004761</v>
+        <v>0.8593380695742212</v>
       </c>
       <c r="K2">
-        <v>2.789083879104567</v>
+        <v>0.7887690905143501</v>
       </c>
       <c r="L2">
-        <v>0.3952839311680947</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>5.760242970891767</v>
+        <v>0.1881683270561822</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4871151241153484</v>
+      </c>
+      <c r="P2">
+        <v>0.9211024246394643</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.769060294821713</v>
+        <v>2.499276801965038</v>
       </c>
       <c r="C3">
-        <v>0.1754534895068218</v>
+        <v>0.6571766188281458</v>
       </c>
       <c r="D3">
-        <v>0.2318981204039829</v>
+        <v>0.1710773275137285</v>
       </c>
       <c r="E3">
-        <v>0.04639722602697738</v>
+        <v>0.04582025084388874</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0009107701416279127</v>
+        <v>1.287879125620265</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002661473943138981</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00176995445222472</v>
       </c>
       <c r="J3">
-        <v>0.009757610754450141</v>
+        <v>0.8030986277187253</v>
       </c>
       <c r="K3">
-        <v>2.524068406611065</v>
+        <v>0.7447470136821295</v>
       </c>
       <c r="L3">
-        <v>0.367321886027824</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.548970397769125</v>
+        <v>0.1674084728997016</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4257819948571111</v>
+      </c>
+      <c r="P3">
+        <v>0.9541071241411672</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.60968702078975</v>
+        <v>2.271585274313679</v>
       </c>
       <c r="C4">
-        <v>0.1602346088379392</v>
+        <v>0.5969012578233901</v>
       </c>
       <c r="D4">
-        <v>0.2225318865018124</v>
+        <v>0.155058257097437</v>
       </c>
       <c r="E4">
-        <v>0.04555010428345163</v>
+        <v>0.04304863483204535</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0009171829091094704</v>
+        <v>1.209189492246537</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.003884705202758187</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002822656475994556</v>
       </c>
       <c r="J4">
-        <v>0.009683405222442154</v>
+        <v>0.7691083362713158</v>
       </c>
       <c r="K4">
-        <v>2.366334449513715</v>
+        <v>0.7180219170558004</v>
       </c>
       <c r="L4">
-        <v>0.3508181642258279</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.422535730725116</v>
+        <v>0.1547049062768124</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3881382624386731</v>
+      </c>
+      <c r="P4">
+        <v>0.974813352973543</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.545948292060586</v>
+        <v>2.177105457638277</v>
       </c>
       <c r="C5">
-        <v>0.1541178734812974</v>
+        <v>0.5729196357110879</v>
       </c>
       <c r="D5">
-        <v>0.2188068542849066</v>
+        <v>0.1485681875865197</v>
       </c>
       <c r="E5">
-        <v>0.04521948504980955</v>
+        <v>0.04192142934305654</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0009198391786690837</v>
+        <v>1.17584956739573</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.004464864992683171</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.003430027142630632</v>
       </c>
       <c r="J5">
-        <v>0.009653574613378346</v>
+        <v>0.7546394071272005</v>
       </c>
       <c r="K5">
-        <v>2.30318818636411</v>
+        <v>0.706272456611984</v>
       </c>
       <c r="L5">
-        <v>0.3442461247464195</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.371760261248539</v>
+        <v>0.1495863724476578</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3726180611549736</v>
+      </c>
+      <c r="P5">
+        <v>0.9829998759764091</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.535434023815469</v>
+        <v>2.159392272255161</v>
       </c>
       <c r="C6">
-        <v>0.1531070039159772</v>
+        <v>0.5694996212518788</v>
       </c>
       <c r="D6">
-        <v>0.2181936453707749</v>
+        <v>0.1474908442840501</v>
       </c>
       <c r="E6">
-        <v>0.04516544342557438</v>
+        <v>0.04173036293088117</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0009202829060875295</v>
+        <v>1.168528776461699</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.004570927438201422</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.003638254069635138</v>
       </c>
       <c r="J6">
-        <v>0.009648643801373424</v>
+        <v>0.7513378746643298</v>
       </c>
       <c r="K6">
-        <v>2.292767769058401</v>
+        <v>0.7031935328409205</v>
       </c>
       <c r="L6">
-        <v>0.3431637222646629</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.363372006767065</v>
+        <v>0.1487986318648922</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3698216533778762</v>
+      </c>
+      <c r="P6">
+        <v>0.9839306991034142</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.608822685778023</v>
+        <v>2.264766771392317</v>
       </c>
       <c r="C7">
-        <v>0.160151786924061</v>
+        <v>0.5980967397241841</v>
       </c>
       <c r="D7">
-        <v>0.2224812875287228</v>
+        <v>0.1549651195953174</v>
       </c>
       <c r="E7">
-        <v>0.04554558744588988</v>
+        <v>0.04302202702855951</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0009172185558469235</v>
+        <v>1.203824598561567</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.003904961190054901</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0030891465176488</v>
       </c>
       <c r="J7">
-        <v>0.009683001359654497</v>
+        <v>0.7664349378365785</v>
       </c>
       <c r="K7">
-        <v>2.365478409012439</v>
+        <v>0.7147681151985097</v>
       </c>
       <c r="L7">
-        <v>0.3507289279154406</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>5.421848027251485</v>
+        <v>0.1548052169477288</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3873281717016965</v>
+      </c>
+      <c r="P7">
+        <v>0.9737506470962121</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.94359755960437</v>
+        <v>2.734746542766175</v>
       </c>
       <c r="C8">
-        <v>0.1920175847731826</v>
+        <v>0.7240233226813473</v>
       </c>
       <c r="D8">
-        <v>0.2422280882986882</v>
+        <v>0.1883126826448489</v>
       </c>
       <c r="E8">
-        <v>0.04735345264120738</v>
+        <v>0.04878928856161746</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0009040683259098348</v>
+        <v>1.366051077042385</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001644066054929283</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001310289944891352</v>
       </c>
       <c r="J8">
-        <v>0.009838411121357638</v>
+        <v>0.8365360512209179</v>
       </c>
       <c r="K8">
-        <v>2.696594421086871</v>
+        <v>0.7694125033223784</v>
       </c>
       <c r="L8">
-        <v>0.3854958252310752</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>5.686664115634073</v>
+        <v>0.1812263480459677</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4651557048381108</v>
+      </c>
+      <c r="P8">
+        <v>0.930908567485135</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.648312071244277</v>
+        <v>3.667483962298775</v>
       </c>
       <c r="C9">
-        <v>0.2581717806928623</v>
+        <v>0.9740436400928729</v>
       </c>
       <c r="D9">
-        <v>0.2844814712914143</v>
+        <v>0.2554054507158128</v>
       </c>
       <c r="E9">
-        <v>0.05142944283281459</v>
+        <v>0.06050622447608678</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008794678745841471</v>
+        <v>1.701425861444221</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.375975466899604E-08</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001141459147906865</v>
       </c>
       <c r="J9">
-        <v>0.01016258289366334</v>
+        <v>0.9833746083112374</v>
       </c>
       <c r="K9">
-        <v>3.39164599950567</v>
+        <v>0.8850156381728311</v>
       </c>
       <c r="L9">
-        <v>0.4596504455758037</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>6.236021984607333</v>
+        <v>0.2332157227782972</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.6192307781563358</v>
+      </c>
+      <c r="P9">
+        <v>0.8525799085648913</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.205293024750631</v>
+        <v>4.330733192740468</v>
       </c>
       <c r="C10">
-        <v>0.3099665135432588</v>
+        <v>1.166895980088441</v>
       </c>
       <c r="D10">
-        <v>0.3182907501994805</v>
+        <v>0.3060681881332812</v>
       </c>
       <c r="E10">
-        <v>0.05481579092771582</v>
+        <v>0.0703546639397814</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000861954495101461</v>
+        <v>1.927871610367049</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0009250232832296312</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.003749534873286109</v>
       </c>
       <c r="J10">
-        <v>0.01041909248928352</v>
+        <v>1.081663628747094</v>
       </c>
       <c r="K10">
-        <v>3.939918653506481</v>
+        <v>0.9566387070056024</v>
       </c>
       <c r="L10">
-        <v>0.5188796986812321</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>6.664196313918069</v>
+        <v>0.2597668241462401</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.72141298360593</v>
+      </c>
+      <c r="P10">
+        <v>0.7925274839063903</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.469761658626339</v>
+        <v>4.431114696987891</v>
       </c>
       <c r="C11">
-        <v>0.3344735702847572</v>
+        <v>1.287563679537072</v>
       </c>
       <c r="D11">
-        <v>0.3344318372633239</v>
+        <v>0.3289943620886788</v>
       </c>
       <c r="E11">
-        <v>0.05645911005507998</v>
+        <v>0.08714747146519386</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008540668269405209</v>
+        <v>1.813522534549918</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01958296351145705</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.005223726691153452</v>
       </c>
       <c r="J11">
-        <v>0.01054152111337814</v>
+        <v>1.017855476851253</v>
       </c>
       <c r="K11">
-        <v>4.200054893378024</v>
+        <v>0.8644790901699579</v>
       </c>
       <c r="L11">
-        <v>0.5471439119863248</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>6.86593576688108</v>
+        <v>0.1776994450693934</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6704815005219871</v>
+      </c>
+      <c r="P11">
+        <v>0.7352132607791058</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.571754245701925</v>
+        <v>4.381894645708542</v>
       </c>
       <c r="C12">
-        <v>0.3439143180475241</v>
+        <v>1.34706158513427</v>
       </c>
       <c r="D12">
-        <v>0.3406690083891561</v>
+        <v>0.337528320862404</v>
       </c>
       <c r="E12">
-        <v>0.05709790098168099</v>
+        <v>0.1060289074557659</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008510873112096677</v>
+        <v>1.67912050866974</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0581459999107139</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.005366086177438945</v>
       </c>
       <c r="J12">
-        <v>0.01058888298199001</v>
+        <v>0.9479675680122739</v>
       </c>
       <c r="K12">
-        <v>4.300351752615029</v>
+        <v>0.7796782553410466</v>
       </c>
       <c r="L12">
-        <v>0.5580648014198744</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>6.943486771936875</v>
+        <v>0.1186091468860226</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6087895671798265</v>
+      </c>
+      <c r="P12">
+        <v>0.7134276206883765</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.549701958809408</v>
+        <v>4.206012665697585</v>
       </c>
       <c r="C13">
-        <v>0.3418735180333101</v>
+        <v>1.364428384618918</v>
       </c>
       <c r="D13">
-        <v>0.3393198977661314</v>
+        <v>0.3352746805886966</v>
       </c>
       <c r="E13">
-        <v>0.05695956216830211</v>
+        <v>0.1272051110805954</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008517287454160883</v>
+        <v>1.513910960252957</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1136214111834732</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.004759054756032555</v>
       </c>
       <c r="J13">
-        <v>0.01057863513917567</v>
+        <v>0.8654787129845545</v>
       </c>
       <c r="K13">
-        <v>4.278667152868366</v>
+        <v>0.6909211597605633</v>
       </c>
       <c r="L13">
-        <v>0.5557026152350915</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>6.926730618865577</v>
+        <v>0.07428480668287563</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5348175556249828</v>
+      </c>
+      <c r="P13">
+        <v>0.7149628810015827</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.478114141124252</v>
+        <v>4.024896148270045</v>
       </c>
       <c r="C14">
-        <v>0.3352468970459483</v>
+        <v>1.358025665638309</v>
       </c>
       <c r="D14">
-        <v>0.334942373754231</v>
+        <v>0.3288223397677825</v>
       </c>
       <c r="E14">
-        <v>0.05651132239052004</v>
+        <v>0.1437588208124296</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008538215775935952</v>
+        <v>1.384562627446059</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1627456056624226</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00413169521477208</v>
       </c>
       <c r="J14">
-        <v>0.01054539643696639</v>
+        <v>0.8020883474712832</v>
       </c>
       <c r="K14">
-        <v>4.208268983014307</v>
+        <v>0.6272766663193607</v>
       </c>
       <c r="L14">
-        <v>0.5480378397025873</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>6.87229178409234</v>
+        <v>0.05235198944410158</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4781774749995122</v>
+      </c>
+      <c r="P14">
+        <v>0.7278320467233605</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.434512670463164</v>
+        <v>3.952311886716473</v>
       </c>
       <c r="C15">
-        <v>0.3312095860924842</v>
+        <v>1.347975164259026</v>
       </c>
       <c r="D15">
-        <v>0.3322777742189231</v>
+        <v>0.3249584772345173</v>
       </c>
       <c r="E15">
-        <v>0.05623896646056892</v>
+        <v>0.1473535980385421</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008551043289372622</v>
+        <v>1.344846794548971</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1751657593665072</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003951035900753297</v>
       </c>
       <c r="J15">
-        <v>0.01052517280353271</v>
+        <v>0.7831568519171981</v>
       </c>
       <c r="K15">
-        <v>4.165388970163349</v>
+        <v>0.6097152025128167</v>
       </c>
       <c r="L15">
-        <v>0.5433722112409072</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>6.839102047149936</v>
+        <v>0.0481270531554987</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4614765153314764</v>
+      </c>
+      <c r="P15">
+        <v>0.7343531151951836</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.188253101418638</v>
+        <v>3.703135694018897</v>
       </c>
       <c r="C16">
-        <v>0.3083859580833064</v>
+        <v>1.260346266564511</v>
       </c>
       <c r="D16">
-        <v>0.3172524793194214</v>
+        <v>0.3032434516004656</v>
       </c>
       <c r="E16">
-        <v>0.05471060681525231</v>
+        <v>0.1379264508342537</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008624712359184272</v>
+        <v>1.280668466107386</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1620842900000525</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002914485801493782</v>
       </c>
       <c r="J16">
-        <v>0.0104112213533849</v>
+        <v>0.7572002864298497</v>
       </c>
       <c r="K16">
-        <v>3.923154245125602</v>
+        <v>0.5966632020316993</v>
       </c>
       <c r="L16">
-        <v>0.5170614390932542</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>6.651165063484854</v>
+        <v>0.04731940927990053</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4345517572973208</v>
+      </c>
+      <c r="P16">
+        <v>0.7567042413179941</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.040188733863374</v>
+        <v>3.607780602464118</v>
       </c>
       <c r="C17">
-        <v>0.2946428840213002</v>
+        <v>1.197020020539924</v>
       </c>
       <c r="D17">
-        <v>0.3082402133254192</v>
+        <v>0.2901229736917799</v>
       </c>
       <c r="E17">
-        <v>0.05380049637772011</v>
+        <v>0.1214906978782437</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008670081986361561</v>
+        <v>1.299371305479411</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.124191215885304</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002520446724293635</v>
       </c>
       <c r="J17">
-        <v>0.01034290223587231</v>
+        <v>0.7706491811362923</v>
       </c>
       <c r="K17">
-        <v>3.777462716810589</v>
+        <v>0.6197966733266469</v>
       </c>
       <c r="L17">
-        <v>0.5012775357741646</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>6.537758885344175</v>
+        <v>0.05666743923209694</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4433562224200216</v>
+      </c>
+      <c r="P17">
+        <v>0.7664865570721524</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.956053573219208</v>
+        <v>3.637425243220719</v>
       </c>
       <c r="C18">
-        <v>0.2868255530497379</v>
+        <v>1.145954230864959</v>
       </c>
       <c r="D18">
-        <v>0.3031271905842061</v>
+        <v>0.2827641042669171</v>
       </c>
       <c r="E18">
-        <v>0.05328659057300733</v>
+        <v>0.1002165251061342</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008696254699962124</v>
+        <v>1.396660037465352</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0713494917354538</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.00220080445074089</v>
       </c>
       <c r="J18">
-        <v>0.01030413524071427</v>
+        <v>0.8220042743772353</v>
       </c>
       <c r="K18">
-        <v>3.694657547390761</v>
+        <v>0.6807346000848966</v>
       </c>
       <c r="L18">
-        <v>0.4923214585259501</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>6.473175351320435</v>
+        <v>0.08376569122222222</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4856174287818149</v>
+      </c>
+      <c r="P18">
+        <v>0.7723834365498075</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.92773631863588</v>
+        <v>3.755095833572398</v>
       </c>
       <c r="C19">
-        <v>0.2841930465565952</v>
+        <v>1.111977660232924</v>
       </c>
       <c r="D19">
-        <v>0.3014076969760282</v>
+        <v>0.2804987425306109</v>
       </c>
       <c r="E19">
-        <v>0.05311418540204826</v>
+        <v>0.08119425793882229</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008705130747682196</v>
+        <v>1.545757472217474</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02616031719607292</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002449368631393334</v>
       </c>
       <c r="J19">
-        <v>0.01029109526173144</v>
+        <v>0.8977313089762049</v>
       </c>
       <c r="K19">
-        <v>3.666784681491151</v>
+        <v>0.7663779410903615</v>
       </c>
       <c r="L19">
-        <v>0.489309319020748</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>6.451414800078538</v>
+        <v>0.1354733159525665</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5531893244986676</v>
+      </c>
+      <c r="P19">
+        <v>0.7834042903438083</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.055842401141433</v>
+        <v>4.137410889197156</v>
       </c>
       <c r="C20">
-        <v>0.2960966539456251</v>
+        <v>1.120832939553907</v>
       </c>
       <c r="D20">
-        <v>0.3091921730429164</v>
+        <v>0.2926177565817767</v>
       </c>
       <c r="E20">
-        <v>0.05389637752395515</v>
+        <v>0.06771930264920645</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008665244583853678</v>
+        <v>1.851286946014369</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0005099041575538088</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003567125110304659</v>
       </c>
       <c r="J20">
-        <v>0.01035011906052929</v>
+        <v>1.04725702406904</v>
       </c>
       <c r="K20">
-        <v>3.792867406174423</v>
+        <v>0.9273663527258407</v>
       </c>
       <c r="L20">
-        <v>0.5029449005642874</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>6.549763382136717</v>
+        <v>0.2527843647071393</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6921324098336825</v>
+      </c>
+      <c r="P20">
+        <v>0.8048767064283595</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.499089012402465</v>
+        <v>4.685553011041463</v>
       </c>
       <c r="C21">
-        <v>0.3371887279729151</v>
+        <v>1.264968587337592</v>
       </c>
       <c r="D21">
-        <v>0.3362246351110372</v>
+        <v>0.3321611924575478</v>
       </c>
       <c r="E21">
-        <v>0.0566425185930477</v>
+        <v>0.07421547514828486</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008532066968780287</v>
+        <v>2.069263651348365</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001794986788736797</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.006488616831807015</v>
       </c>
       <c r="J21">
-        <v>0.01055513074594305</v>
+        <v>1.144853952109344</v>
       </c>
       <c r="K21">
-        <v>4.228895937117329</v>
+        <v>1.007344802448046</v>
       </c>
       <c r="L21">
-        <v>0.550283014998854</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>6.888249048946705</v>
+        <v>0.2922071908604664</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7886748550293561</v>
+      </c>
+      <c r="P21">
+        <v>0.7675474573962227</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.799667276417154</v>
+        <v>5.041531231526164</v>
       </c>
       <c r="C22">
-        <v>0.3649941839291273</v>
+        <v>1.360289263904406</v>
       </c>
       <c r="D22">
-        <v>0.3546287035003957</v>
+        <v>0.358390589477267</v>
       </c>
       <c r="E22">
-        <v>0.05853444055732027</v>
+        <v>0.07903655642735963</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008445434556863259</v>
+        <v>2.207774779255175</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.003170704873766361</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.008743145834851695</v>
       </c>
       <c r="J22">
-        <v>0.01069505478704613</v>
+        <v>1.2067101178325</v>
       </c>
       <c r="K22">
-        <v>4.524434475955104</v>
+        <v>1.057163241657861</v>
       </c>
       <c r="L22">
-        <v>0.5825069974676751</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>7.116299598226192</v>
+        <v>0.3116724631035339</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.8471020638189231</v>
+      </c>
+      <c r="P22">
+        <v>0.7426445717571681</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.638154674853695</v>
+        <v>4.858298660385287</v>
       </c>
       <c r="C23">
-        <v>0.3500579302762787</v>
+        <v>1.30741970026321</v>
       </c>
       <c r="D23">
-        <v>0.3447329923573363</v>
+        <v>0.3443651623116182</v>
       </c>
       <c r="E23">
-        <v>0.0575151656269135</v>
+        <v>0.07646456700783677</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008491649483280987</v>
+        <v>2.139580160691764</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.002399947848332085</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.007220964253899176</v>
       </c>
       <c r="J23">
-        <v>0.01061976561153433</v>
+        <v>1.176559213997166</v>
       </c>
       <c r="K23">
-        <v>4.36564176864232</v>
+        <v>1.034197668960999</v>
       </c>
       <c r="L23">
-        <v>0.5651804769756836</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>6.993902391988001</v>
+        <v>0.3010586589700779</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.8166429853968822</v>
+      </c>
+      <c r="P23">
+        <v>0.7570076037147828</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.048762315917884</v>
+        <v>4.156295284913767</v>
       </c>
       <c r="C24">
-        <v>0.2954391455187704</v>
+        <v>1.113117474567701</v>
       </c>
       <c r="D24">
-        <v>0.308761580612412</v>
+        <v>0.2920383071604533</v>
       </c>
       <c r="E24">
-        <v>0.05385300072680899</v>
+        <v>0.06699327633108521</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008667431292975637</v>
+        <v>1.876233588028583</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0004282856890946984</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003136621572338072</v>
       </c>
       <c r="J24">
-        <v>0.01034685475663899</v>
+        <v>1.059909020502829</v>
       </c>
       <c r="K24">
-        <v>3.785899990208918</v>
+        <v>0.9429247254823352</v>
       </c>
       <c r="L24">
-        <v>0.5021907185269043</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>6.544334244459151</v>
+        <v>0.2615219684611816</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.7006065086283897</v>
+      </c>
+      <c r="P24">
+        <v>0.8108610133544474</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.451562552941482</v>
+        <v>3.40450148780792</v>
       </c>
       <c r="C25">
-        <v>0.2397913588038705</v>
+        <v>0.9084202481752186</v>
       </c>
       <c r="D25">
-        <v>0.2726139658554985</v>
+        <v>0.237019992143189</v>
       </c>
       <c r="E25">
-        <v>0.05026341002988488</v>
+        <v>0.05725498659248629</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008860115867697083</v>
+        <v>1.600600623812085</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0001165122196549184</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001151162982310439</v>
       </c>
       <c r="J25">
-        <v>0.01007219143874938</v>
+        <v>0.9385176307676772</v>
       </c>
       <c r="K25">
-        <v>3.197786149983074</v>
+        <v>0.8477343808689994</v>
       </c>
       <c r="L25">
-        <v>0.43884387566996</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>6.083588443870781</v>
+        <v>0.2193922931736694</v>
       </c>
       <c r="O25">
+        <v>0.5763543646435352</v>
+      </c>
+      <c r="P25">
+        <v>0.8714523030335162</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.870021408753189</v>
+        <v>2.645231975367039</v>
       </c>
       <c r="C2">
-        <v>0.7563181806440298</v>
+        <v>0.8096369678657425</v>
       </c>
       <c r="D2">
-        <v>0.1974577890542832</v>
+        <v>0.1975748092430365</v>
       </c>
       <c r="E2">
-        <v>0.05038785688791059</v>
+        <v>0.04980947393111457</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.417480452428379</v>
+        <v>1.187267574042735</v>
       </c>
       <c r="H2">
-        <v>0.001200037985181535</v>
+        <v>0.0009795314650165032</v>
       </c>
       <c r="I2">
-        <v>0.0007523104850957196</v>
+        <v>0.000674679859482552</v>
       </c>
       <c r="J2">
-        <v>0.8593380695742212</v>
+        <v>0.7959680963647031</v>
       </c>
       <c r="K2">
-        <v>0.7887690905143501</v>
+        <v>0.6514601901098516</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2964757339649324</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1994014000769049</v>
       </c>
       <c r="N2">
-        <v>0.1881683270561822</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4871151241153484</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9211024246394643</v>
+        <v>0.2004434282760812</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4626242411736214</v>
+      </c>
+      <c r="R2">
+        <v>0.8637869376019879</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.499276801965038</v>
+        <v>2.311377220572467</v>
       </c>
       <c r="C3">
-        <v>0.6571766188281458</v>
+        <v>0.7009703022745555</v>
       </c>
       <c r="D3">
-        <v>0.1710773275137285</v>
+        <v>0.1712922724410646</v>
       </c>
       <c r="E3">
-        <v>0.04582025084388874</v>
+        <v>0.04567489810422831</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.287879125620265</v>
+        <v>1.087641141162806</v>
       </c>
       <c r="H3">
-        <v>0.002661473943138981</v>
+        <v>0.002157553556234926</v>
       </c>
       <c r="I3">
-        <v>0.00176995445222472</v>
+        <v>0.00130474677550696</v>
       </c>
       <c r="J3">
-        <v>0.8030986277187253</v>
+        <v>0.7481354518491514</v>
       </c>
       <c r="K3">
-        <v>0.7447470136821295</v>
+        <v>0.6232829019349211</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2932322011973341</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1823652105096834</v>
       </c>
       <c r="N3">
-        <v>0.1674084728997016</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.4257819948571111</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9541071241411672</v>
+        <v>0.1790281173650641</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.405318613217716</v>
+      </c>
+      <c r="R3">
+        <v>0.8959925647936708</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.271585274313679</v>
+        <v>2.105692629486896</v>
       </c>
       <c r="C4">
-        <v>0.5969012578233901</v>
+        <v>0.6348927091994483</v>
       </c>
       <c r="D4">
-        <v>0.155058257097437</v>
+        <v>0.1553155033086711</v>
       </c>
       <c r="E4">
-        <v>0.04304863483204535</v>
+        <v>0.0431552590781612</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.209189492246537</v>
+        <v>1.02717623766334</v>
       </c>
       <c r="H4">
-        <v>0.003884705202758187</v>
+        <v>0.00314295397909814</v>
       </c>
       <c r="I4">
-        <v>0.002822656475994556</v>
+        <v>0.002019936475236239</v>
       </c>
       <c r="J4">
-        <v>0.7691083362713158</v>
+        <v>0.7187505409038124</v>
       </c>
       <c r="K4">
-        <v>0.7180219170558004</v>
+        <v>0.6060555314106111</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2909911362134068</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1727474530662256</v>
       </c>
       <c r="N4">
-        <v>0.1547049062768124</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3881382624386731</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.974813352973543</v>
+        <v>0.1659220188652242</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3700732742141994</v>
+      </c>
+      <c r="R4">
+        <v>0.9162796853133262</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.177105457638277</v>
+        <v>2.020157830472101</v>
       </c>
       <c r="C5">
-        <v>0.5729196357110879</v>
+        <v>0.6085674602714448</v>
       </c>
       <c r="D5">
-        <v>0.1485681875865197</v>
+        <v>0.1488389887393708</v>
       </c>
       <c r="E5">
-        <v>0.04192142934305654</v>
+        <v>0.04212946355621039</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.17584956739573</v>
+        <v>1.00139522569205</v>
       </c>
       <c r="H5">
-        <v>0.004464864992683171</v>
+        <v>0.003610430341445481</v>
       </c>
       <c r="I5">
-        <v>0.003430027142630632</v>
+        <v>0.002477768377997513</v>
       </c>
       <c r="J5">
-        <v>0.7546394071272005</v>
+        <v>0.7060880406571641</v>
       </c>
       <c r="K5">
-        <v>0.706272456611984</v>
+        <v>0.5982547817354629</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2896665190862393</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1687871507082157</v>
       </c>
       <c r="N5">
-        <v>0.1495863724476578</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3726180611549736</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9829998759764091</v>
+        <v>0.1606393992391375</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3555247866845477</v>
+      </c>
+      <c r="R5">
+        <v>0.9244788461737434</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.159392272255161</v>
+        <v>2.004077268345156</v>
       </c>
       <c r="C6">
-        <v>0.5694996212518788</v>
+        <v>0.6047680581114037</v>
       </c>
       <c r="D6">
-        <v>0.1474908442840501</v>
+        <v>0.1477638781198181</v>
       </c>
       <c r="E6">
-        <v>0.04173036293088117</v>
+        <v>0.04195707471872012</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.168528776461699</v>
+        <v>0.9955400853519905</v>
       </c>
       <c r="H6">
-        <v>0.004570927438201422</v>
+        <v>0.003695971612234339</v>
       </c>
       <c r="I6">
-        <v>0.003638254069635138</v>
+        <v>0.002675180592706106</v>
       </c>
       <c r="J6">
-        <v>0.7513378746643298</v>
+        <v>0.7031547436621679</v>
       </c>
       <c r="K6">
-        <v>0.7031935328409205</v>
+        <v>0.5959910234207655</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2890182037648401</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1678377912906086</v>
       </c>
       <c r="N6">
-        <v>0.1487986318648922</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3698216533778762</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9839306991034142</v>
+        <v>0.1598237285879094</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3529028867123287</v>
+      </c>
+      <c r="R6">
+        <v>0.9256152461293268</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.264766771392317</v>
+        <v>2.097046792200388</v>
       </c>
       <c r="C7">
-        <v>0.5980967397241841</v>
+        <v>0.6345079913141376</v>
       </c>
       <c r="D7">
-        <v>0.1549651195953174</v>
+        <v>0.1552194137109097</v>
       </c>
       <c r="E7">
-        <v>0.04302202702855951</v>
+        <v>0.04309463163233129</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.203824598561567</v>
+        <v>1.026653652435883</v>
       </c>
       <c r="H7">
-        <v>0.003904961190054901</v>
+        <v>0.003165424881685586</v>
       </c>
       <c r="I7">
-        <v>0.0030891465176488</v>
+        <v>0.002330132683253439</v>
       </c>
       <c r="J7">
-        <v>0.7664349378365785</v>
+        <v>0.7073220760978103</v>
       </c>
       <c r="K7">
-        <v>0.7147681151985097</v>
+        <v>0.6020613879897709</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2892960606360688</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1714455058626498</v>
       </c>
       <c r="N7">
-        <v>0.1548052169477288</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3873281717016965</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9737506470962121</v>
+        <v>0.1659561433075609</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3689643732241308</v>
+      </c>
+      <c r="R7">
+        <v>0.9155051226374052</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.734746542766175</v>
+        <v>2.515434649289148</v>
       </c>
       <c r="C8">
-        <v>0.7240233226813473</v>
+        <v>0.7687912601356572</v>
       </c>
       <c r="D8">
-        <v>0.1883126826448489</v>
+        <v>0.1884542263850761</v>
       </c>
       <c r="E8">
-        <v>0.04878928856161746</v>
+        <v>0.04823467155063987</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.366051077042385</v>
+        <v>1.160943524359496</v>
       </c>
       <c r="H8">
-        <v>0.001644066054929283</v>
+        <v>0.001350022932662842</v>
       </c>
       <c r="I8">
-        <v>0.001310289944891352</v>
+        <v>0.001181311204582869</v>
       </c>
       <c r="J8">
-        <v>0.8365360512209179</v>
+        <v>0.7467978713669936</v>
       </c>
       <c r="K8">
-        <v>0.7694125033223784</v>
+        <v>0.6341386254403503</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2923069925595527</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1907404138317119</v>
       </c>
       <c r="N8">
-        <v>0.1812263480459677</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4651557048381108</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.930908567485135</v>
+        <v>0.1930677353691834</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4409463892735985</v>
+      </c>
+      <c r="R8">
+        <v>0.8733289839325179</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.667483962298775</v>
+        <v>3.349129672193612</v>
       </c>
       <c r="C9">
-        <v>0.9740436400928729</v>
+        <v>1.041111485881061</v>
       </c>
       <c r="D9">
-        <v>0.2554054507158128</v>
+        <v>0.2551630869780581</v>
       </c>
       <c r="E9">
-        <v>0.06050622447608678</v>
+        <v>0.05871752913096273</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.701425861444221</v>
+        <v>1.423684066841901</v>
       </c>
       <c r="H9">
-        <v>1.375975466899604E-08</v>
+        <v>2.454914356242455E-07</v>
       </c>
       <c r="I9">
-        <v>0.001141459147906865</v>
+        <v>0.001281554581265887</v>
       </c>
       <c r="J9">
-        <v>0.9833746083112374</v>
+        <v>0.860548210031169</v>
       </c>
       <c r="K9">
-        <v>0.8850156381728311</v>
+        <v>0.7071197026161613</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3001094368657391</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.238563982519338</v>
       </c>
       <c r="N9">
-        <v>0.2332157227782972</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6192307781563358</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8525799085648913</v>
+        <v>0.2466086672175294</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.584089584032256</v>
+      </c>
+      <c r="R9">
+        <v>0.796756775891222</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.330733192740468</v>
+        <v>3.925560124564527</v>
       </c>
       <c r="C10">
-        <v>1.166895980088441</v>
+        <v>1.239991125017127</v>
       </c>
       <c r="D10">
-        <v>0.3060681881332812</v>
+        <v>0.3053621870296297</v>
       </c>
       <c r="E10">
-        <v>0.0703546639397814</v>
+        <v>0.06742708788490503</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.927871610367049</v>
+        <v>1.625839597148968</v>
       </c>
       <c r="H10">
-        <v>0.0009250232832296312</v>
+        <v>0.0007256410545397607</v>
       </c>
       <c r="I10">
-        <v>0.003749534873286109</v>
+        <v>0.003436689656460601</v>
       </c>
       <c r="J10">
-        <v>1.081663628747094</v>
+        <v>0.8826849062832309</v>
       </c>
       <c r="K10">
-        <v>0.9566387070056024</v>
+        <v>0.7426968102942837</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2979028693247514</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2707011445557725</v>
       </c>
       <c r="N10">
-        <v>0.2597668241462401</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.72141298360593</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7925274839063903</v>
+        <v>0.2734158913521441</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6763471219232855</v>
+      </c>
+      <c r="R10">
+        <v>0.7415383350678821</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.431114696987891</v>
+        <v>4.000390727048227</v>
       </c>
       <c r="C11">
-        <v>1.287563679537072</v>
+        <v>1.339442815263567</v>
       </c>
       <c r="D11">
-        <v>0.3289943620886788</v>
+        <v>0.3280643561311365</v>
       </c>
       <c r="E11">
-        <v>0.08714747146519386</v>
+        <v>0.08396811351135902</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.813522534549918</v>
+        <v>1.58460536428629</v>
       </c>
       <c r="H11">
-        <v>0.01958296351145705</v>
+        <v>0.01931174772235522</v>
       </c>
       <c r="I11">
-        <v>0.005223726691153452</v>
+        <v>0.004746363465545578</v>
       </c>
       <c r="J11">
-        <v>1.017855476851253</v>
+        <v>0.7306428129409142</v>
       </c>
       <c r="K11">
-        <v>0.8644790901699579</v>
+        <v>0.6548396772492566</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2602812041141149</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2439827411871391</v>
       </c>
       <c r="N11">
-        <v>0.1776994450693934</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6704815005219871</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7352132607791058</v>
+        <v>0.1871726054180201</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6238106751292065</v>
+      </c>
+      <c r="R11">
+        <v>0.719254531302429</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.381894645708542</v>
+        <v>3.95688171801595</v>
       </c>
       <c r="C12">
-        <v>1.34706158513427</v>
+        <v>1.384892029689468</v>
       </c>
       <c r="D12">
-        <v>0.337528320862404</v>
+        <v>0.336540765874858</v>
       </c>
       <c r="E12">
-        <v>0.1060289074557659</v>
+        <v>0.1025956835446848</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.67912050866974</v>
+        <v>1.498085491052535</v>
       </c>
       <c r="H12">
-        <v>0.0581459999107139</v>
+        <v>0.05788504884914403</v>
       </c>
       <c r="I12">
-        <v>0.005366086177438945</v>
+        <v>0.004838969602861454</v>
       </c>
       <c r="J12">
-        <v>0.9479675680122739</v>
+        <v>0.6381055180431616</v>
       </c>
       <c r="K12">
-        <v>0.7796782553410466</v>
+        <v>0.5850383030107835</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2338130921603181</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2186041780116739</v>
       </c>
       <c r="N12">
-        <v>0.1186091468860226</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6087895671798265</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7134276206883765</v>
+        <v>0.1250461242856247</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5642419299003691</v>
+      </c>
+      <c r="R12">
+        <v>0.7249457578143819</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.206012665697585</v>
+        <v>3.817986077099931</v>
       </c>
       <c r="C13">
-        <v>1.364428384618918</v>
+        <v>1.397991807955918</v>
       </c>
       <c r="D13">
-        <v>0.3352746805886966</v>
+        <v>0.3343836648939771</v>
       </c>
       <c r="E13">
-        <v>0.1272051110805954</v>
+        <v>0.1241514477151995</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.513910960252957</v>
+        <v>1.355607165270186</v>
       </c>
       <c r="H13">
-        <v>0.1136214111834732</v>
+        <v>0.1134375062217998</v>
       </c>
       <c r="I13">
-        <v>0.004759054756032555</v>
+        <v>0.00438201001076699</v>
       </c>
       <c r="J13">
-        <v>0.8654787129845545</v>
+        <v>0.5920568233456862</v>
       </c>
       <c r="K13">
-        <v>0.6909211597605633</v>
+        <v>0.5224953519446913</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2126780031162347</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1923983671163754</v>
       </c>
       <c r="N13">
-        <v>0.07428480668287563</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5348175556249828</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7149628810015827</v>
+        <v>0.07836177701110358</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.4959482479418327</v>
+      </c>
+      <c r="R13">
+        <v>0.7471637235268531</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.024896148270045</v>
+        <v>3.676129072331776</v>
       </c>
       <c r="C14">
-        <v>1.358025665638309</v>
+        <v>1.392976424113613</v>
       </c>
       <c r="D14">
-        <v>0.3288223397677825</v>
+        <v>0.3280636444706033</v>
       </c>
       <c r="E14">
-        <v>0.1437588208124296</v>
+        <v>0.1414307061495421</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.384562627446059</v>
+        <v>1.232527860176901</v>
       </c>
       <c r="H14">
-        <v>0.1627456056624226</v>
+        <v>0.1626294890843241</v>
       </c>
       <c r="I14">
-        <v>0.00413169521477208</v>
+        <v>0.003942332472553822</v>
       </c>
       <c r="J14">
-        <v>0.8020883474712832</v>
+        <v>0.5768111812974297</v>
       </c>
       <c r="K14">
-        <v>0.6272766663193607</v>
+        <v>0.4812614090768506</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1997572306868456</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1736822187344096</v>
       </c>
       <c r="N14">
-        <v>0.05235198944410158</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4781774749995122</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7278320467233605</v>
+        <v>0.05504848531001016</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4445981065945475</v>
+      </c>
+      <c r="R14">
+        <v>0.769937980751763</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.952311886716473</v>
+        <v>3.619131430625146</v>
       </c>
       <c r="C15">
-        <v>1.347975164259026</v>
+        <v>1.385134855248566</v>
       </c>
       <c r="D15">
-        <v>0.3249584772345173</v>
+        <v>0.324261845764596</v>
       </c>
       <c r="E15">
-        <v>0.1473535980385421</v>
+        <v>0.1454357969901103</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.344846794548971</v>
+        <v>1.190836588323037</v>
       </c>
       <c r="H15">
-        <v>0.1751657593665072</v>
+        <v>0.1750757662828306</v>
       </c>
       <c r="I15">
-        <v>0.003951035900753297</v>
+        <v>0.003861327937555892</v>
       </c>
       <c r="J15">
-        <v>0.7831568519171981</v>
+        <v>0.5795244932895969</v>
       </c>
       <c r="K15">
-        <v>0.6097152025128167</v>
+        <v>0.4712016830077275</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1970345126365558</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1684928439687639</v>
       </c>
       <c r="N15">
-        <v>0.0481270531554987</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4614765153314764</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7343531151951836</v>
+        <v>0.05056630131717021</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4297958196296037</v>
+      </c>
+      <c r="R15">
+        <v>0.777327605438046</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.703135694018897</v>
+        <v>3.420913433008764</v>
       </c>
       <c r="C16">
-        <v>1.260346266564511</v>
+        <v>1.312225250673237</v>
       </c>
       <c r="D16">
-        <v>0.3032434516004656</v>
+        <v>0.302808326850311</v>
       </c>
       <c r="E16">
-        <v>0.1379264508342537</v>
+        <v>0.1378430081411821</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.280668466107386</v>
+        <v>1.09844289078444</v>
       </c>
       <c r="H16">
-        <v>0.1620842900000525</v>
+        <v>0.1620753651748146</v>
       </c>
       <c r="I16">
-        <v>0.002914485801493782</v>
+        <v>0.003109331714878039</v>
       </c>
       <c r="J16">
-        <v>0.7572002864298497</v>
+        <v>0.6388196526467453</v>
       </c>
       <c r="K16">
-        <v>0.5966632020316993</v>
+        <v>0.4754201656418005</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2028295752838289</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1641288900459692</v>
       </c>
       <c r="N16">
-        <v>0.04731940927990053</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4345517572973208</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7567042413179941</v>
+        <v>0.05038851341996065</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4082510807907269</v>
+      </c>
+      <c r="R16">
+        <v>0.7868897906489423</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.607780602464118</v>
+        <v>3.34025370821422</v>
       </c>
       <c r="C17">
-        <v>1.197020020539924</v>
+        <v>1.256333830577546</v>
       </c>
       <c r="D17">
-        <v>0.2901229736917799</v>
+        <v>0.2898017004833093</v>
       </c>
       <c r="E17">
-        <v>0.1214906978782437</v>
+        <v>0.1219747683283643</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.299371305479411</v>
+        <v>1.097146896826246</v>
       </c>
       <c r="H17">
-        <v>0.124191215885304</v>
+        <v>0.124197871856552</v>
       </c>
       <c r="I17">
-        <v>0.002520446724293635</v>
+        <v>0.002816758694573096</v>
       </c>
       <c r="J17">
-        <v>0.7706491811362923</v>
+        <v>0.6851245576402789</v>
       </c>
       <c r="K17">
-        <v>0.6197966733266469</v>
+        <v>0.4994333696093918</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.214159186557076</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1699515988968123</v>
       </c>
       <c r="N17">
-        <v>0.05666743923209694</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4433562224200216</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7664865570721524</v>
+        <v>0.06095835123144866</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4181497131304894</v>
+      </c>
+      <c r="R17">
+        <v>0.7843329584068002</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.637425243220719</v>
+        <v>3.360676635634888</v>
       </c>
       <c r="C18">
-        <v>1.145954230864959</v>
+        <v>1.211198127605655</v>
       </c>
       <c r="D18">
-        <v>0.2827641042669171</v>
+        <v>0.2824702554675014</v>
       </c>
       <c r="E18">
-        <v>0.1002165251061342</v>
+        <v>0.1004758629997653</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.396660037465352</v>
+        <v>1.16888718212104</v>
       </c>
       <c r="H18">
-        <v>0.0713494917354538</v>
+        <v>0.07135669416486223</v>
       </c>
       <c r="I18">
-        <v>0.00220080445074089</v>
+        <v>0.0024678854722886</v>
       </c>
       <c r="J18">
-        <v>0.8220042743772353</v>
+        <v>0.742466290009844</v>
       </c>
       <c r="K18">
-        <v>0.6807346000848966</v>
+        <v>0.5487535305002211</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2337556229040807</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1870199492633304</v>
       </c>
       <c r="N18">
-        <v>0.08376569122222222</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4856174287818149</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7723834365498075</v>
+        <v>0.09011630478308064</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.458586227588647</v>
+      </c>
+      <c r="R18">
+        <v>0.774289271107417</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.755095833572398</v>
+        <v>3.453461163741395</v>
       </c>
       <c r="C19">
-        <v>1.111977660232924</v>
+        <v>1.183026476839473</v>
       </c>
       <c r="D19">
-        <v>0.2804987425306109</v>
+        <v>0.280170453445109</v>
       </c>
       <c r="E19">
-        <v>0.08119425793882229</v>
+        <v>0.08068090414479201</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.545757472217474</v>
+        <v>1.286404318862225</v>
       </c>
       <c r="H19">
-        <v>0.02616031719607292</v>
+        <v>0.02615979174139227</v>
       </c>
       <c r="I19">
-        <v>0.002449368631393334</v>
+        <v>0.002712168496627143</v>
       </c>
       <c r="J19">
-        <v>0.8977313089762049</v>
+        <v>0.8084140549982521</v>
       </c>
       <c r="K19">
-        <v>0.7663779410903615</v>
+        <v>0.6142698200037557</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.25834570702078</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2116455559618728</v>
       </c>
       <c r="N19">
-        <v>0.1354733159525665</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5531893244986676</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7834042903438083</v>
+        <v>0.1446240427299372</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.522271022395131</v>
+      </c>
+      <c r="R19">
+        <v>0.76607791184564</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.137410889197156</v>
+        <v>3.766049060110277</v>
       </c>
       <c r="C20">
-        <v>1.120832939553907</v>
+        <v>1.198369325388057</v>
       </c>
       <c r="D20">
-        <v>0.2926177565817767</v>
+        <v>0.2920733431140405</v>
       </c>
       <c r="E20">
-        <v>0.06771930264920645</v>
+        <v>0.06529237105601204</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.851286946014369</v>
+        <v>1.542462379334268</v>
       </c>
       <c r="H20">
-        <v>0.0005099041575538088</v>
+        <v>0.0004038071152492329</v>
       </c>
       <c r="I20">
-        <v>0.003567125110304659</v>
+        <v>0.003614261588575474</v>
       </c>
       <c r="J20">
-        <v>1.04725702406904</v>
+        <v>0.9010570270426399</v>
       </c>
       <c r="K20">
-        <v>0.9273663527258407</v>
+        <v>0.7291981543088255</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2970182323374431</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2604133384715226</v>
       </c>
       <c r="N20">
-        <v>0.2527843647071393</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6921324098336825</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8048767064283595</v>
+        <v>0.2665762129964833</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6511905172231991</v>
+      </c>
+      <c r="R20">
+        <v>0.7552512645504903</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.685553011041463</v>
+        <v>4.191546253295542</v>
       </c>
       <c r="C21">
-        <v>1.264968587337592</v>
+        <v>1.31669449358327</v>
       </c>
       <c r="D21">
-        <v>0.3321611924575478</v>
+        <v>0.3310551558000157</v>
       </c>
       <c r="E21">
-        <v>0.07421547514828486</v>
+        <v>0.06986723331174183</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.069263651348365</v>
+        <v>1.817253154272635</v>
       </c>
       <c r="H21">
-        <v>0.001794986788736797</v>
+        <v>0.00129554977990809</v>
       </c>
       <c r="I21">
-        <v>0.006488616831807015</v>
+        <v>0.005745658415489352</v>
       </c>
       <c r="J21">
-        <v>1.144853952109344</v>
+        <v>0.7771969159544483</v>
       </c>
       <c r="K21">
-        <v>1.007344802448046</v>
+        <v>0.7520521446080011</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2936366002022339</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2842697543573536</v>
       </c>
       <c r="N21">
-        <v>0.2922071908604664</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7886748550293561</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7675474573962227</v>
+        <v>0.305672492598589</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7317698337128533</v>
+      </c>
+      <c r="R21">
+        <v>0.7142843291437249</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.041531231526164</v>
+        <v>4.46294391437101</v>
       </c>
       <c r="C22">
-        <v>1.360289263904406</v>
+        <v>1.391813146998913</v>
       </c>
       <c r="D22">
-        <v>0.358390589477267</v>
+        <v>0.356854650223795</v>
       </c>
       <c r="E22">
-        <v>0.07903655642735963</v>
+        <v>0.07344661229774907</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.207774779255175</v>
+        <v>2.005083050549899</v>
       </c>
       <c r="H22">
-        <v>0.003170704873766361</v>
+        <v>0.002274064206373883</v>
       </c>
       <c r="I22">
-        <v>0.008743145834851695</v>
+        <v>0.007191740600312357</v>
       </c>
       <c r="J22">
-        <v>1.2067101178325</v>
+        <v>0.691552505237496</v>
       </c>
       <c r="K22">
-        <v>1.057163241657861</v>
+        <v>0.7631788507257511</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2900493296403894</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2988639260464581</v>
       </c>
       <c r="N22">
-        <v>0.3116724631035339</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8471020638189231</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7426445717571681</v>
+        <v>0.3245539358894689</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7792016693595869</v>
+      </c>
+      <c r="R22">
+        <v>0.6884888816926873</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.858298660385287</v>
+        <v>4.330989690592276</v>
       </c>
       <c r="C23">
-        <v>1.30741970026321</v>
+        <v>1.354128111213072</v>
       </c>
       <c r="D23">
-        <v>0.3443651623116182</v>
+        <v>0.3430786137361821</v>
       </c>
       <c r="E23">
-        <v>0.07646456700783677</v>
+        <v>0.07162740974058313</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.139580160691764</v>
+        <v>1.897498972939928</v>
       </c>
       <c r="H23">
-        <v>0.002399947848332085</v>
+        <v>0.001735018542722511</v>
       </c>
       <c r="I23">
-        <v>0.007220964253899176</v>
+        <v>0.006070240469123078</v>
       </c>
       <c r="J23">
-        <v>1.176559213997166</v>
+        <v>0.7587009108674749</v>
       </c>
       <c r="K23">
-        <v>1.034197668960999</v>
+        <v>0.7633795478632024</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2940908263081212</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2935332036081988</v>
       </c>
       <c r="N23">
-        <v>0.3010586589700779</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8166429853968822</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7570076037147828</v>
+        <v>0.3144213906970208</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7555578463635655</v>
+      </c>
+      <c r="R23">
+        <v>0.7024431626520249</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.156295284913767</v>
+        <v>3.782024840873191</v>
       </c>
       <c r="C24">
-        <v>1.113117474567701</v>
+        <v>1.191277495370741</v>
       </c>
       <c r="D24">
-        <v>0.2920383071604533</v>
+        <v>0.2914907208830328</v>
       </c>
       <c r="E24">
-        <v>0.06699327633108521</v>
+        <v>0.06445487856741128</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.876233588028583</v>
+        <v>1.56226269275075</v>
       </c>
       <c r="H24">
-        <v>0.0004282856890946984</v>
+        <v>0.0003157082432743152</v>
       </c>
       <c r="I24">
-        <v>0.003136621572338072</v>
+        <v>0.003074602958978545</v>
       </c>
       <c r="J24">
-        <v>1.059909020502829</v>
+        <v>0.9132254906595847</v>
       </c>
       <c r="K24">
-        <v>0.9429247254823352</v>
+        <v>0.7416516421579757</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3017283172047911</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2650539750629974</v>
       </c>
       <c r="N24">
-        <v>0.2615219684611816</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7006065086283897</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8108610133544474</v>
+        <v>0.2756722204744193</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6592008671516609</v>
+      </c>
+      <c r="R24">
+        <v>0.7572793815205205</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.40450148780792</v>
+        <v>3.118000606342719</v>
       </c>
       <c r="C25">
-        <v>0.9084202481752186</v>
+        <v>0.9718087148912673</v>
       </c>
       <c r="D25">
-        <v>0.237019992143189</v>
+        <v>0.2369141575330787</v>
       </c>
       <c r="E25">
-        <v>0.05725498659248629</v>
+        <v>0.05589105669709848</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.600600623812085</v>
+        <v>1.337808786091102</v>
       </c>
       <c r="H25">
-        <v>0.0001165122196549184</v>
+        <v>0.0001028428413727411</v>
       </c>
       <c r="I25">
-        <v>0.001151162982310439</v>
+        <v>0.001412635084822256</v>
       </c>
       <c r="J25">
-        <v>0.9385176307676772</v>
+        <v>0.8384459467713441</v>
       </c>
       <c r="K25">
-        <v>0.8477343808689994</v>
+        <v>0.6843001876240677</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2970796309193844</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2237630577127234</v>
       </c>
       <c r="N25">
-        <v>0.2193922931736694</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5763543646435352</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8714523030335162</v>
+        <v>0.232461199988407</v>
       </c>
       <c r="Q25">
+        <v>0.5448469067304842</v>
+      </c>
+      <c r="R25">
+        <v>0.8165332519875201</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
